--- a/10_ResiduosSolidosUrbanos/10 RSU.xlsx
+++ b/10_ResiduosSolidosUrbanos/10 RSU.xlsx
@@ -33,6 +33,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Agua: AG
 Aire: AI
@@ -54,6 +55,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Propiedad que puede ser medida u observada</t>
         </r>
@@ -66,6 +68,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Fuente oficial
 Autores
@@ -81,6 +84,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Cada indicador se construye a partir de uno o varios parámetros. 
 Para asignar el nombre:
@@ -96,6 +100,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Consultor6:
 Método de cálculo del indicador.</t>
@@ -109,6 +114,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Y fuente de justificación. </t>
         </r>
@@ -121,6 +127,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Detallar si el parámetro se encuentra por localidad, ciudad, entidad, etc. </t>
         </r>
@@ -133,6 +140,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Incluir periodicidad de actualización de información
 Año más reciente disponible,.</t>
@@ -146,6 +154,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>¿Cómo se asigna la calificación?</t>
         </r>
@@ -445,6 +454,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>RE01=(P1002 x P1001) / P1001
 P1002= Porcentaje de recolección selectiva de RSU
@@ -490,6 +500,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>RE02=P1001 / P0001
 P1001 = Promedio diario de RSU recolectados
@@ -528,6 +539,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">entre el total de población del municipio
 </t>
@@ -537,6 +549,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -547,6 +560,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>RE03=P1003 / P0002
 P1003= Número de municipios con disponibilidad de servicios relacionados con los RSU
@@ -584,6 +598,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>número de viviendas</t>
     </r>
@@ -592,6 +607,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> por su porcentaje de eliminación para cada municipio y se divide entre la población
 </t>
@@ -601,6 +617,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>RE04=P1004
 P1004=Forma de eliminación de residuos</t>
@@ -645,6 +662,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>RE05=(P1006 + P1007 + P1008 + P1009) / P0001
 Ó
@@ -688,6 +706,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>RE06=P1001 / (P1013 + P1014 + P1015)
 P1001= Promedio diario de RSU recolectados
@@ -708,6 +727,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>adecuadamente.</t>
     </r>
@@ -716,6 +736,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -740,6 +761,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>RE07=P1001 / P1016
 P1001= Promedio diario de RSU recolectados
@@ -811,7 +833,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -821,67 +843,85 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF70AD47"/>
-      <name val="Soberana sans"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF70AD47"/>
-      <name val="Soberana sans"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF9454C3"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF9454C3"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1200,9 +1240,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1212,9 +1249,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1231,9 +1265,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1274,45 +1305,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1328,20 +1337,51 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1924,6 +1964,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248CD666-EB70-4636-89D7-893063F02995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2229,11 +2323,11 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -2258,218 +2352,218 @@
     <col min="24" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25" customHeight="1">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
       <c r="C1" s="9"/>
       <c r="G1" s="11"/>
       <c r="J1" s="11"/>
       <c r="W1" s="11"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G2" s="11"/>
       <c r="J2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G3" s="11"/>
       <c r="J3" s="11"/>
       <c r="W3" s="11"/>
     </row>
-    <row r="4" spans="1:23" ht="23.25">
-      <c r="B4" s="65"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="50"/>
+    <row r="4" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="W4" s="11"/>
     </row>
-    <row r="5" spans="1:23" ht="21" customHeight="1">
+    <row r="5" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="50"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="W5" s="11"/>
     </row>
-    <row r="6" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B6" s="68" t="s">
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="49"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1">
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="75"/>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="14"/>
       <c r="J7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="75"/>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="14"/>
       <c r="J8" s="11"/>
       <c r="W8" s="11"/>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="75"/>
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="14"/>
       <c r="J9" s="11"/>
       <c r="W9" s="11"/>
     </row>
-    <row r="10" spans="1:23" ht="60.75" customHeight="1">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
+    <row r="10" spans="1:23" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="14"/>
       <c r="J10" s="11"/>
       <c r="W10" s="11"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F11" s="15"/>
       <c r="G11" s="11"/>
       <c r="J11" s="11"/>
       <c r="W11" s="11"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G12" s="11"/>
       <c r="J12" s="11"/>
       <c r="W12" s="11"/>
     </row>
-    <row r="13" spans="1:23" ht="21" customHeight="1">
-      <c r="A13" s="80" t="s">
+    <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="50"/>
-      <c r="L13" s="65" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="47"/>
+      <c r="L13" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="66"/>
-    </row>
-    <row r="14" spans="1:23" ht="18.75">
-      <c r="A14" s="59" t="s">
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="81" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="59" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="59" t="s">
+      <c r="H14" s="56"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="52" t="s">
         <v>71</v>
       </c>
       <c r="K14" s="16"/>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="59" t="s">
+      <c r="M14" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="59" t="s">
+      <c r="N14" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="O14" s="59" t="s">
+      <c r="O14" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="61" t="s">
+      <c r="P14" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="61" t="s">
+      <c r="Q14" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="R14" s="62" t="s">
+      <c r="R14" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="59" t="s">
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18.75">
-      <c r="A15" s="60"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="60"/>
+    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="4" t="s">
         <v>79</v>
       </c>
@@ -2479,37 +2573,37 @@
       <c r="I15" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="60"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="64" t="s">
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="50"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="47"/>
       <c r="V15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="W15" s="60"/>
-    </row>
-    <row r="16" spans="1:23" ht="153.75" customHeight="1">
+      <c r="W15" s="53"/>
+    </row>
+    <row r="16" spans="1:23" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="19" t="s">
         <v>85</v>
       </c>
@@ -2532,7 +2626,7 @@
       <c r="M16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="79" t="s">
         <v>90</v>
       </c>
       <c r="O16" s="19" t="s">
@@ -2553,18 +2647,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="106.5" customHeight="1">
+    <row r="17" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="58" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="50"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="19" t="s">
         <v>96</v>
       </c>
@@ -2587,7 +2681,7 @@
       <c r="M17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="79" t="s">
         <v>100</v>
       </c>
       <c r="O17" s="19" t="s">
@@ -2607,18 +2701,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="138" customHeight="1">
+    <row r="18" spans="1:23" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="58" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="50"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="19" t="s">
         <v>104</v>
       </c>
@@ -2637,13 +2731,13 @@
       <c r="L18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="25" t="s">
         <v>109</v>
       </c>
       <c r="P18" s="6" t="s">
@@ -2661,19 +2755,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="118.5" customHeight="1">
+    <row r="19" spans="1:23" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="58" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="47"/>
+      <c r="F19" s="26" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -2691,13 +2785,13 @@
       <c r="L19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="M19" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="O19" s="28" t="s">
+      <c r="O19" s="27" t="s">
         <v>117</v>
       </c>
       <c r="P19" s="6" t="s">
@@ -2715,18 +2809,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="285">
+    <row r="20" spans="1:23" ht="285" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="57" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="19" t="s">
         <v>121</v>
       </c>
@@ -2745,13 +2839,13 @@
       <c r="L20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="N20" s="29" t="s">
+      <c r="N20" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="O20" s="26" t="s">
+      <c r="O20" s="25" t="s">
         <v>126</v>
       </c>
       <c r="P20" s="6" t="s">
@@ -2769,18 +2863,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="150">
+    <row r="21" spans="1:23" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="19" t="s">
         <v>129</v>
       </c>
@@ -2790,22 +2884,22 @@
       <c r="H21" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="29" t="s">
         <v>106</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="O21" s="32" t="s">
+      <c r="O21" s="30" t="s">
         <v>134</v>
       </c>
       <c r="P21" s="6" t="s">
@@ -2823,18 +2917,18 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="165">
+    <row r="22" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="50"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="19" t="s">
         <v>137</v>
       </c>
@@ -2844,49 +2938,49 @@
       <c r="H22" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="34" t="s">
+      <c r="M22" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="35" t="s">
+      <c r="N22" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="O22" s="32"/>
-      <c r="P22" s="31" t="s">
+      <c r="O22" s="30"/>
+      <c r="P22" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="Q22" s="31" t="s">
+      <c r="Q22" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="31" t="s">
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="105" customHeight="1">
+    <row r="23" spans="1:23" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="50"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="19" t="s">
         <v>142</v>
       </c>
@@ -2896,38 +2990,38 @@
       <c r="H23" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="37"/>
-    </row>
-    <row r="24" spans="1:23" ht="78.75" customHeight="1">
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="34"/>
+    </row>
+    <row r="24" spans="1:23" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51" t="s">
+      <c r="C24" s="47"/>
+      <c r="D24" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="41" t="s">
+      <c r="E24" s="47"/>
+      <c r="F24" s="38" t="s">
         <v>145</v>
       </c>
       <c r="G24" s="22" t="s">
@@ -2936,16 +3030,16 @@
       <c r="H24" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="29" t="s">
         <v>106</v>
       </c>
       <c r="L24" s="11"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="42"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="39"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="15"/>
@@ -2955,19 +3049,19 @@
       <c r="V24" s="15"/>
       <c r="W24" s="11"/>
     </row>
-    <row r="25" spans="1:23" ht="107.25" customHeight="1">
+    <row r="25" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51" t="s">
+      <c r="C25" s="47"/>
+      <c r="D25" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="27" t="s">
+      <c r="E25" s="47"/>
+      <c r="F25" s="26" t="s">
         <v>112</v>
       </c>
       <c r="G25" s="20" t="s">
@@ -2983,9 +3077,9 @@
         <v>99</v>
       </c>
       <c r="L25" s="11"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="42"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="39"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="15"/>
@@ -2995,19 +3089,19 @@
       <c r="V25" s="15"/>
       <c r="W25" s="11"/>
     </row>
-    <row r="26" spans="1:23" ht="106.5" customHeight="1">
+    <row r="26" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51" t="s">
+      <c r="C26" s="47"/>
+      <c r="D26" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="27" t="s">
+      <c r="E26" s="47"/>
+      <c r="F26" s="26" t="s">
         <v>112</v>
       </c>
       <c r="G26" s="20" t="s">
@@ -3023,9 +3117,9 @@
         <v>99</v>
       </c>
       <c r="L26" s="11"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="42"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="39"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="15"/>
@@ -3035,22 +3129,22 @@
       <c r="V26" s="15"/>
       <c r="W26" s="11"/>
     </row>
-    <row r="27" spans="1:23" ht="63" customHeight="1">
+    <row r="27" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51" t="s">
+      <c r="C27" s="47"/>
+      <c r="D27" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="27" t="s">
+      <c r="E27" s="47"/>
+      <c r="F27" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="41" t="s">
         <v>86</v>
       </c>
       <c r="H27" s="21" t="s">
@@ -3059,13 +3153,13 @@
       <c r="I27" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="29" t="s">
         <v>153</v>
       </c>
       <c r="L27" s="11"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="42"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="39"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="15"/>
@@ -3075,18 +3169,18 @@
       <c r="V27" s="15"/>
       <c r="W27" s="11"/>
     </row>
-    <row r="28" spans="1:23" ht="57" customHeight="1">
+    <row r="28" spans="1:23" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="50"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="19" t="s">
         <v>155</v>
       </c>
@@ -3099,13 +3193,13 @@
       <c r="I28" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="29" t="s">
         <v>106</v>
       </c>
       <c r="L28" s="11"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="42"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="39"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="15"/>
@@ -3115,18 +3209,18 @@
       <c r="V28" s="15"/>
       <c r="W28" s="11"/>
     </row>
-    <row r="29" spans="1:23" ht="60" customHeight="1">
+    <row r="29" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51" t="s">
+      <c r="C29" s="47"/>
+      <c r="D29" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="50"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="19" t="s">
         <v>155</v>
       </c>
@@ -3139,13 +3233,13 @@
       <c r="I29" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="29" t="s">
         <v>106</v>
       </c>
       <c r="L29" s="11"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="42"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="39"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="15"/>
@@ -3155,18 +3249,18 @@
       <c r="V29" s="15"/>
       <c r="W29" s="11"/>
     </row>
-    <row r="30" spans="1:23" ht="56.25" customHeight="1">
+    <row r="30" spans="1:23" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="50"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="19" t="s">
         <v>155</v>
       </c>
@@ -3179,13 +3273,13 @@
       <c r="I30" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="29" t="s">
         <v>106</v>
       </c>
       <c r="L30" s="11"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="42"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="39"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="15"/>
@@ -3195,18 +3289,18 @@
       <c r="V30" s="15"/>
       <c r="W30" s="11"/>
     </row>
-    <row r="31" spans="1:23" ht="56.25" customHeight="1">
+    <row r="31" spans="1:23" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51" t="s">
+      <c r="C31" s="47"/>
+      <c r="D31" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="50"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="19" t="s">
         <v>155</v>
       </c>
@@ -3223,9 +3317,9 @@
         <v>106</v>
       </c>
       <c r="L31" s="11"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="42"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="39"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="15"/>
@@ -3235,20 +3329,20 @@
       <c r="V31" s="15"/>
       <c r="W31" s="11"/>
     </row>
-    <row r="32" spans="1:23" ht="108.75" customHeight="1">
-      <c r="B32" s="55"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="45"/>
+    <row r="32" spans="1:23" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="77"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="42"/>
       <c r="J32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="42"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="39"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="15"/>
@@ -3258,20 +3352,20 @@
       <c r="V32" s="15"/>
       <c r="W32" s="11"/>
     </row>
-    <row r="33" spans="2:23" ht="105" customHeight="1">
-      <c r="B33" s="55"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="45"/>
+    <row r="33" spans="2:23" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="77"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="42"/>
       <c r="J33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="42"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="39"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="15"/>
@@ -3281,20 +3375,20 @@
       <c r="V33" s="15"/>
       <c r="W33" s="11"/>
     </row>
-    <row r="34" spans="2:23" ht="93.75" customHeight="1">
-      <c r="B34" s="55"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="45"/>
+    <row r="34" spans="2:23" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="77"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="42"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="39"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="15"/>
@@ -3304,20 +3398,20 @@
       <c r="V34" s="15"/>
       <c r="W34" s="11"/>
     </row>
-    <row r="35" spans="2:23" ht="93.75" customHeight="1">
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
+    <row r="35" spans="2:23" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
       <c r="J35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="42"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="39"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="15"/>
@@ -3327,20 +3421,20 @@
       <c r="V35" s="15"/>
       <c r="W35" s="11"/>
     </row>
-    <row r="36" spans="2:23" ht="93.75" customHeight="1">
-      <c r="B36" s="55"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
+    <row r="36" spans="2:23" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="77"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
       <c r="J36" s="11"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="42"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="39"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="15"/>
@@ -3350,20 +3444,20 @@
       <c r="V36" s="15"/>
       <c r="W36" s="11"/>
     </row>
-    <row r="37" spans="2:23" ht="93.75" customHeight="1">
-      <c r="B37" s="55"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
+    <row r="37" spans="2:23" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="77"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
       <c r="J37" s="11"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="42"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="39"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="15"/>
@@ -3373,11 +3467,11 @@
       <c r="V37" s="15"/>
       <c r="W37" s="11"/>
     </row>
-    <row r="38" spans="2:23">
-      <c r="B38" s="56"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53"/>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="78"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="65"/>
       <c r="F38" s="15"/>
       <c r="G38" s="11"/>
       <c r="H38" s="15"/>
@@ -3396,7 +3490,7 @@
       <c r="V38" s="15"/>
       <c r="W38" s="11"/>
     </row>
-    <row r="39" spans="2:23">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G39" s="11"/>
       <c r="J39" s="11"/>
       <c r="L39" s="15"/>
@@ -3412,7 +3506,7 @@
       <c r="V39" s="15"/>
       <c r="W39" s="11"/>
     </row>
-    <row r="40" spans="2:23">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G40" s="11"/>
       <c r="J40" s="11"/>
       <c r="L40" s="15"/>
@@ -3428,10 +3522,10 @@
       <c r="V40" s="15"/>
       <c r="W40" s="11"/>
     </row>
-    <row r="41" spans="2:23">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G41" s="11"/>
       <c r="J41" s="11"/>
-      <c r="L41" s="48"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
@@ -3444,7 +3538,7 @@
       <c r="V41" s="15"/>
       <c r="W41" s="11"/>
     </row>
-    <row r="42" spans="2:23">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G42" s="11"/>
       <c r="J42" s="11"/>
       <c r="L42" s="15"/>
@@ -3460,7 +3554,7 @@
       <c r="V42" s="15"/>
       <c r="W42" s="11"/>
     </row>
-    <row r="43" spans="2:23">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G43" s="11"/>
       <c r="J43" s="11"/>
       <c r="L43" s="15"/>
@@ -3476,7 +3570,7 @@
       <c r="V43" s="15"/>
       <c r="W43" s="11"/>
     </row>
-    <row r="44" spans="2:23">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G44" s="11"/>
       <c r="J44" s="11"/>
       <c r="L44" s="15"/>
@@ -3492,7 +3586,7 @@
       <c r="V44" s="16"/>
       <c r="W44" s="11"/>
     </row>
-    <row r="45" spans="2:23">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G45" s="11"/>
       <c r="J45" s="11"/>
       <c r="L45" s="15"/>
@@ -3508,7 +3602,7 @@
       <c r="V45" s="15"/>
       <c r="W45" s="11"/>
     </row>
-    <row r="46" spans="2:23">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G46" s="11"/>
       <c r="J46" s="11"/>
       <c r="L46" s="15"/>
@@ -3524,7 +3618,7 @@
       <c r="V46" s="15"/>
       <c r="W46" s="11"/>
     </row>
-    <row r="47" spans="2:23">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G47" s="11"/>
       <c r="J47" s="11"/>
       <c r="L47" s="15"/>
@@ -3540,7 +3634,7 @@
       <c r="V47" s="15"/>
       <c r="W47" s="11"/>
     </row>
-    <row r="48" spans="2:23">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G48" s="11"/>
       <c r="J48" s="11"/>
       <c r="L48" s="15"/>
@@ -3556,7 +3650,7 @@
       <c r="V48" s="15"/>
       <c r="W48" s="11"/>
     </row>
-    <row r="49" spans="7:23">
+    <row r="49" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G49" s="11"/>
       <c r="J49" s="11"/>
       <c r="L49" s="15"/>
@@ -3572,7 +3666,7 @@
       <c r="V49" s="15"/>
       <c r="W49" s="11"/>
     </row>
-    <row r="50" spans="7:23">
+    <row r="50" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G50" s="11"/>
       <c r="J50" s="11"/>
       <c r="L50" s="15"/>
@@ -3588,7 +3682,7 @@
       <c r="V50" s="15"/>
       <c r="W50" s="11"/>
     </row>
-    <row r="51" spans="7:23">
+    <row r="51" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G51" s="11"/>
       <c r="J51" s="11"/>
       <c r="L51" s="15"/>
@@ -3604,7 +3698,7 @@
       <c r="V51" s="15"/>
       <c r="W51" s="11"/>
     </row>
-    <row r="52" spans="7:23">
+    <row r="52" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G52" s="11"/>
       <c r="J52" s="11"/>
       <c r="L52" s="15"/>
@@ -3620,7 +3714,7 @@
       <c r="V52" s="15"/>
       <c r="W52" s="11"/>
     </row>
-    <row r="53" spans="7:23">
+    <row r="53" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G53" s="11"/>
       <c r="J53" s="11"/>
       <c r="L53" s="15"/>
@@ -3636,7 +3730,7 @@
       <c r="V53" s="15"/>
       <c r="W53" s="11"/>
     </row>
-    <row r="54" spans="7:23">
+    <row r="54" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G54" s="11"/>
       <c r="J54" s="11"/>
       <c r="L54" s="15"/>
@@ -3652,4746 +3746,4780 @@
       <c r="V54" s="15"/>
       <c r="W54" s="11"/>
     </row>
-    <row r="55" spans="7:23">
+    <row r="55" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G55" s="11"/>
       <c r="J55" s="11"/>
       <c r="W55" s="11"/>
     </row>
-    <row r="56" spans="7:23">
+    <row r="56" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G56" s="11"/>
       <c r="J56" s="11"/>
       <c r="W56" s="11"/>
     </row>
-    <row r="57" spans="7:23">
+    <row r="57" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G57" s="11"/>
       <c r="J57" s="11"/>
       <c r="W57" s="11"/>
     </row>
-    <row r="58" spans="7:23">
+    <row r="58" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G58" s="11"/>
       <c r="J58" s="11"/>
       <c r="W58" s="11"/>
     </row>
-    <row r="59" spans="7:23">
+    <row r="59" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G59" s="11"/>
       <c r="J59" s="11"/>
       <c r="W59" s="11"/>
     </row>
-    <row r="60" spans="7:23">
+    <row r="60" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G60" s="11"/>
       <c r="J60" s="11"/>
       <c r="W60" s="11"/>
     </row>
-    <row r="61" spans="7:23">
+    <row r="61" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G61" s="11"/>
       <c r="J61" s="11"/>
       <c r="W61" s="11"/>
     </row>
-    <row r="62" spans="7:23">
+    <row r="62" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G62" s="11"/>
       <c r="J62" s="11"/>
       <c r="W62" s="11"/>
     </row>
-    <row r="63" spans="7:23">
+    <row r="63" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G63" s="11"/>
       <c r="J63" s="11"/>
       <c r="W63" s="11"/>
     </row>
-    <row r="64" spans="7:23">
+    <row r="64" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G64" s="11"/>
       <c r="J64" s="11"/>
       <c r="W64" s="11"/>
     </row>
-    <row r="65" spans="7:23">
+    <row r="65" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G65" s="11"/>
       <c r="J65" s="11"/>
       <c r="W65" s="22"/>
     </row>
-    <row r="66" spans="7:23">
+    <row r="66" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G66" s="11"/>
       <c r="J66" s="11"/>
       <c r="W66" s="11"/>
     </row>
-    <row r="67" spans="7:23">
+    <row r="67" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G67" s="11"/>
       <c r="J67" s="11"/>
       <c r="W67" s="11"/>
     </row>
-    <row r="68" spans="7:23">
+    <row r="68" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G68" s="11"/>
       <c r="J68" s="11"/>
       <c r="W68" s="11"/>
     </row>
-    <row r="69" spans="7:23">
+    <row r="69" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G69" s="11"/>
       <c r="J69" s="11"/>
       <c r="W69" s="11"/>
     </row>
-    <row r="70" spans="7:23">
+    <row r="70" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G70" s="11"/>
       <c r="J70" s="11"/>
       <c r="W70" s="11"/>
     </row>
-    <row r="71" spans="7:23">
+    <row r="71" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G71" s="11"/>
       <c r="J71" s="11"/>
       <c r="W71" s="11"/>
     </row>
-    <row r="72" spans="7:23">
+    <row r="72" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G72" s="11"/>
       <c r="J72" s="11"/>
       <c r="W72" s="11"/>
     </row>
-    <row r="73" spans="7:23">
+    <row r="73" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G73" s="11"/>
       <c r="J73" s="11"/>
       <c r="W73" s="11"/>
     </row>
-    <row r="74" spans="7:23">
+    <row r="74" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G74" s="11"/>
       <c r="J74" s="11"/>
       <c r="W74" s="11"/>
     </row>
-    <row r="75" spans="7:23">
+    <row r="75" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G75" s="11"/>
       <c r="J75" s="11"/>
       <c r="W75" s="11"/>
     </row>
-    <row r="76" spans="7:23">
+    <row r="76" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G76" s="11"/>
       <c r="J76" s="11"/>
       <c r="W76" s="11"/>
     </row>
-    <row r="77" spans="7:23">
+    <row r="77" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G77" s="11"/>
       <c r="J77" s="11"/>
       <c r="W77" s="11"/>
     </row>
-    <row r="78" spans="7:23">
+    <row r="78" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G78" s="11"/>
       <c r="J78" s="11"/>
       <c r="W78" s="11"/>
     </row>
-    <row r="79" spans="7:23">
+    <row r="79" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G79" s="11"/>
       <c r="J79" s="11"/>
       <c r="W79" s="11"/>
     </row>
-    <row r="80" spans="7:23">
+    <row r="80" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G80" s="11"/>
       <c r="J80" s="11"/>
       <c r="W80" s="11"/>
     </row>
-    <row r="81" spans="7:23">
+    <row r="81" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G81" s="11"/>
       <c r="J81" s="11"/>
       <c r="W81" s="11"/>
     </row>
-    <row r="82" spans="7:23">
+    <row r="82" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G82" s="11"/>
       <c r="J82" s="11"/>
       <c r="W82" s="11"/>
     </row>
-    <row r="83" spans="7:23">
+    <row r="83" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G83" s="11"/>
       <c r="J83" s="11"/>
       <c r="W83" s="11"/>
     </row>
-    <row r="84" spans="7:23">
+    <row r="84" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G84" s="11"/>
       <c r="J84" s="11"/>
       <c r="W84" s="11"/>
     </row>
-    <row r="85" spans="7:23">
+    <row r="85" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G85" s="11"/>
       <c r="J85" s="11"/>
       <c r="W85" s="11"/>
     </row>
-    <row r="86" spans="7:23">
+    <row r="86" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G86" s="11"/>
       <c r="J86" s="11"/>
       <c r="W86" s="11"/>
     </row>
-    <row r="87" spans="7:23">
+    <row r="87" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G87" s="11"/>
       <c r="J87" s="11"/>
       <c r="W87" s="11"/>
     </row>
-    <row r="88" spans="7:23">
+    <row r="88" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G88" s="11"/>
       <c r="J88" s="11"/>
       <c r="W88" s="11"/>
     </row>
-    <row r="89" spans="7:23">
+    <row r="89" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G89" s="11"/>
       <c r="J89" s="11"/>
       <c r="W89" s="11"/>
     </row>
-    <row r="90" spans="7:23">
+    <row r="90" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G90" s="11"/>
       <c r="J90" s="11"/>
       <c r="W90" s="11"/>
     </row>
-    <row r="91" spans="7:23">
+    <row r="91" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G91" s="11"/>
       <c r="J91" s="11"/>
       <c r="W91" s="11"/>
     </row>
-    <row r="92" spans="7:23">
+    <row r="92" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G92" s="11"/>
       <c r="J92" s="11"/>
       <c r="W92" s="11"/>
     </row>
-    <row r="93" spans="7:23">
+    <row r="93" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G93" s="11"/>
       <c r="J93" s="11"/>
       <c r="W93" s="11"/>
     </row>
-    <row r="94" spans="7:23">
+    <row r="94" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G94" s="11"/>
       <c r="J94" s="11"/>
       <c r="W94" s="11"/>
     </row>
-    <row r="95" spans="7:23">
+    <row r="95" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G95" s="11"/>
       <c r="J95" s="11"/>
       <c r="W95" s="11"/>
     </row>
-    <row r="96" spans="7:23">
+    <row r="96" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G96" s="11"/>
       <c r="J96" s="11"/>
       <c r="W96" s="11"/>
     </row>
-    <row r="97" spans="7:23">
+    <row r="97" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G97" s="11"/>
       <c r="J97" s="11"/>
       <c r="W97" s="11"/>
     </row>
-    <row r="98" spans="7:23">
+    <row r="98" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G98" s="11"/>
       <c r="J98" s="11"/>
       <c r="W98" s="11"/>
     </row>
-    <row r="99" spans="7:23">
+    <row r="99" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G99" s="11"/>
       <c r="J99" s="11"/>
       <c r="W99" s="11"/>
     </row>
-    <row r="100" spans="7:23">
+    <row r="100" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G100" s="11"/>
       <c r="J100" s="11"/>
       <c r="W100" s="11"/>
     </row>
-    <row r="101" spans="7:23">
+    <row r="101" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G101" s="11"/>
       <c r="J101" s="11"/>
       <c r="W101" s="11"/>
     </row>
-    <row r="102" spans="7:23">
+    <row r="102" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G102" s="11"/>
       <c r="J102" s="11"/>
       <c r="W102" s="11"/>
     </row>
-    <row r="103" spans="7:23">
+    <row r="103" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G103" s="11"/>
       <c r="J103" s="11"/>
       <c r="W103" s="11"/>
     </row>
-    <row r="104" spans="7:23">
+    <row r="104" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G104" s="11"/>
       <c r="J104" s="11"/>
       <c r="W104" s="11"/>
     </row>
-    <row r="105" spans="7:23">
+    <row r="105" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G105" s="11"/>
       <c r="J105" s="11"/>
       <c r="W105" s="11"/>
     </row>
-    <row r="106" spans="7:23">
+    <row r="106" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G106" s="11"/>
       <c r="J106" s="11"/>
       <c r="W106" s="11"/>
     </row>
-    <row r="107" spans="7:23">
+    <row r="107" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G107" s="11"/>
       <c r="J107" s="11"/>
       <c r="W107" s="11"/>
     </row>
-    <row r="108" spans="7:23">
+    <row r="108" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G108" s="11"/>
       <c r="J108" s="11"/>
       <c r="W108" s="11"/>
     </row>
-    <row r="109" spans="7:23">
+    <row r="109" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G109" s="11"/>
       <c r="J109" s="11"/>
       <c r="W109" s="11"/>
     </row>
-    <row r="110" spans="7:23">
+    <row r="110" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G110" s="11"/>
       <c r="J110" s="11"/>
       <c r="W110" s="11"/>
     </row>
-    <row r="111" spans="7:23">
+    <row r="111" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G111" s="11"/>
       <c r="J111" s="11"/>
       <c r="W111" s="11"/>
     </row>
-    <row r="112" spans="7:23">
+    <row r="112" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G112" s="11"/>
       <c r="J112" s="11"/>
       <c r="W112" s="11"/>
     </row>
-    <row r="113" spans="7:23">
+    <row r="113" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G113" s="11"/>
       <c r="J113" s="11"/>
       <c r="W113" s="11"/>
     </row>
-    <row r="114" spans="7:23">
+    <row r="114" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G114" s="11"/>
       <c r="J114" s="11"/>
       <c r="W114" s="11"/>
     </row>
-    <row r="115" spans="7:23">
+    <row r="115" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G115" s="11"/>
       <c r="J115" s="11"/>
       <c r="W115" s="11"/>
     </row>
-    <row r="116" spans="7:23">
+    <row r="116" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G116" s="11"/>
       <c r="J116" s="11"/>
       <c r="W116" s="11"/>
     </row>
-    <row r="117" spans="7:23">
+    <row r="117" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G117" s="11"/>
       <c r="J117" s="11"/>
       <c r="W117" s="11"/>
     </row>
-    <row r="118" spans="7:23">
+    <row r="118" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G118" s="11"/>
       <c r="J118" s="11"/>
       <c r="W118" s="11"/>
     </row>
-    <row r="119" spans="7:23">
+    <row r="119" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G119" s="11"/>
       <c r="J119" s="11"/>
       <c r="W119" s="11"/>
     </row>
-    <row r="120" spans="7:23">
+    <row r="120" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G120" s="11"/>
       <c r="J120" s="11"/>
       <c r="W120" s="11"/>
     </row>
-    <row r="121" spans="7:23">
+    <row r="121" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G121" s="11"/>
       <c r="J121" s="11"/>
       <c r="W121" s="11"/>
     </row>
-    <row r="122" spans="7:23">
+    <row r="122" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G122" s="11"/>
       <c r="J122" s="11"/>
       <c r="W122" s="11"/>
     </row>
-    <row r="123" spans="7:23">
+    <row r="123" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G123" s="11"/>
       <c r="J123" s="11"/>
       <c r="W123" s="11"/>
     </row>
-    <row r="124" spans="7:23">
+    <row r="124" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G124" s="11"/>
       <c r="J124" s="11"/>
       <c r="W124" s="11"/>
     </row>
-    <row r="125" spans="7:23">
+    <row r="125" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G125" s="11"/>
       <c r="J125" s="11"/>
       <c r="W125" s="11"/>
     </row>
-    <row r="126" spans="7:23">
+    <row r="126" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G126" s="11"/>
       <c r="J126" s="11"/>
       <c r="W126" s="11"/>
     </row>
-    <row r="127" spans="7:23">
+    <row r="127" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G127" s="11"/>
       <c r="J127" s="11"/>
       <c r="W127" s="11"/>
     </row>
-    <row r="128" spans="7:23">
+    <row r="128" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G128" s="11"/>
       <c r="J128" s="11"/>
       <c r="W128" s="11"/>
     </row>
-    <row r="129" spans="7:23">
+    <row r="129" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G129" s="11"/>
       <c r="J129" s="11"/>
       <c r="W129" s="11"/>
     </row>
-    <row r="130" spans="7:23">
+    <row r="130" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G130" s="11"/>
       <c r="J130" s="11"/>
       <c r="W130" s="11"/>
     </row>
-    <row r="131" spans="7:23">
+    <row r="131" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G131" s="11"/>
       <c r="J131" s="11"/>
       <c r="W131" s="11"/>
     </row>
-    <row r="132" spans="7:23">
+    <row r="132" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G132" s="11"/>
       <c r="J132" s="11"/>
       <c r="W132" s="11"/>
     </row>
-    <row r="133" spans="7:23">
+    <row r="133" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G133" s="11"/>
       <c r="J133" s="11"/>
       <c r="W133" s="11"/>
     </row>
-    <row r="134" spans="7:23">
+    <row r="134" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G134" s="11"/>
       <c r="J134" s="11"/>
       <c r="W134" s="11"/>
     </row>
-    <row r="135" spans="7:23">
+    <row r="135" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G135" s="11"/>
       <c r="J135" s="11"/>
       <c r="W135" s="11"/>
     </row>
-    <row r="136" spans="7:23">
+    <row r="136" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G136" s="11"/>
       <c r="J136" s="11"/>
       <c r="W136" s="11"/>
     </row>
-    <row r="137" spans="7:23">
+    <row r="137" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G137" s="11"/>
       <c r="J137" s="11"/>
       <c r="W137" s="11"/>
     </row>
-    <row r="138" spans="7:23">
+    <row r="138" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G138" s="11"/>
       <c r="J138" s="11"/>
       <c r="W138" s="11"/>
     </row>
-    <row r="139" spans="7:23">
+    <row r="139" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G139" s="11"/>
       <c r="J139" s="11"/>
       <c r="W139" s="11"/>
     </row>
-    <row r="140" spans="7:23">
+    <row r="140" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G140" s="11"/>
       <c r="J140" s="11"/>
       <c r="W140" s="11"/>
     </row>
-    <row r="141" spans="7:23">
+    <row r="141" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G141" s="11"/>
       <c r="J141" s="11"/>
       <c r="W141" s="11"/>
     </row>
-    <row r="142" spans="7:23">
+    <row r="142" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G142" s="11"/>
       <c r="J142" s="11"/>
       <c r="W142" s="11"/>
     </row>
-    <row r="143" spans="7:23">
+    <row r="143" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G143" s="11"/>
       <c r="J143" s="11"/>
       <c r="W143" s="11"/>
     </row>
-    <row r="144" spans="7:23">
+    <row r="144" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G144" s="11"/>
       <c r="J144" s="11"/>
       <c r="W144" s="11"/>
     </row>
-    <row r="145" spans="7:23">
+    <row r="145" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G145" s="11"/>
       <c r="J145" s="11"/>
       <c r="W145" s="11"/>
     </row>
-    <row r="146" spans="7:23">
+    <row r="146" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G146" s="11"/>
       <c r="J146" s="11"/>
       <c r="W146" s="11"/>
     </row>
-    <row r="147" spans="7:23">
+    <row r="147" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G147" s="11"/>
       <c r="J147" s="11"/>
       <c r="W147" s="11"/>
     </row>
-    <row r="148" spans="7:23">
+    <row r="148" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G148" s="11"/>
       <c r="J148" s="11"/>
       <c r="W148" s="11"/>
     </row>
-    <row r="149" spans="7:23">
+    <row r="149" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G149" s="11"/>
       <c r="J149" s="11"/>
       <c r="W149" s="11"/>
     </row>
-    <row r="150" spans="7:23">
+    <row r="150" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G150" s="11"/>
       <c r="J150" s="11"/>
       <c r="W150" s="11"/>
     </row>
-    <row r="151" spans="7:23">
+    <row r="151" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G151" s="11"/>
       <c r="J151" s="11"/>
       <c r="W151" s="11"/>
     </row>
-    <row r="152" spans="7:23">
+    <row r="152" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G152" s="11"/>
       <c r="J152" s="11"/>
       <c r="W152" s="11"/>
     </row>
-    <row r="153" spans="7:23">
+    <row r="153" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G153" s="11"/>
       <c r="J153" s="11"/>
       <c r="W153" s="11"/>
     </row>
-    <row r="154" spans="7:23">
+    <row r="154" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G154" s="11"/>
       <c r="J154" s="11"/>
       <c r="W154" s="11"/>
     </row>
-    <row r="155" spans="7:23">
+    <row r="155" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G155" s="11"/>
       <c r="J155" s="11"/>
       <c r="W155" s="11"/>
     </row>
-    <row r="156" spans="7:23">
+    <row r="156" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G156" s="11"/>
       <c r="J156" s="11"/>
       <c r="W156" s="11"/>
     </row>
-    <row r="157" spans="7:23">
+    <row r="157" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G157" s="11"/>
       <c r="J157" s="11"/>
       <c r="W157" s="11"/>
     </row>
-    <row r="158" spans="7:23">
+    <row r="158" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G158" s="11"/>
       <c r="J158" s="11"/>
       <c r="W158" s="11"/>
     </row>
-    <row r="159" spans="7:23">
+    <row r="159" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G159" s="11"/>
       <c r="J159" s="11"/>
       <c r="W159" s="11"/>
     </row>
-    <row r="160" spans="7:23">
+    <row r="160" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G160" s="11"/>
       <c r="J160" s="11"/>
       <c r="W160" s="11"/>
     </row>
-    <row r="161" spans="7:23">
+    <row r="161" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G161" s="11"/>
       <c r="J161" s="11"/>
       <c r="W161" s="11"/>
     </row>
-    <row r="162" spans="7:23">
+    <row r="162" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G162" s="11"/>
       <c r="J162" s="11"/>
       <c r="W162" s="11"/>
     </row>
-    <row r="163" spans="7:23">
+    <row r="163" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G163" s="11"/>
       <c r="J163" s="11"/>
       <c r="W163" s="11"/>
     </row>
-    <row r="164" spans="7:23">
+    <row r="164" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G164" s="11"/>
       <c r="J164" s="11"/>
       <c r="W164" s="11"/>
     </row>
-    <row r="165" spans="7:23">
+    <row r="165" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G165" s="11"/>
       <c r="J165" s="11"/>
       <c r="W165" s="11"/>
     </row>
-    <row r="166" spans="7:23">
+    <row r="166" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G166" s="11"/>
       <c r="J166" s="11"/>
       <c r="W166" s="11"/>
     </row>
-    <row r="167" spans="7:23">
+    <row r="167" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G167" s="11"/>
       <c r="J167" s="11"/>
       <c r="W167" s="11"/>
     </row>
-    <row r="168" spans="7:23">
+    <row r="168" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G168" s="11"/>
       <c r="J168" s="11"/>
       <c r="W168" s="11"/>
     </row>
-    <row r="169" spans="7:23">
+    <row r="169" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G169" s="11"/>
       <c r="J169" s="11"/>
       <c r="W169" s="11"/>
     </row>
-    <row r="170" spans="7:23">
+    <row r="170" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G170" s="11"/>
       <c r="J170" s="11"/>
       <c r="W170" s="11"/>
     </row>
-    <row r="171" spans="7:23">
+    <row r="171" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G171" s="11"/>
       <c r="J171" s="11"/>
       <c r="W171" s="11"/>
     </row>
-    <row r="172" spans="7:23">
+    <row r="172" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G172" s="11"/>
       <c r="J172" s="11"/>
       <c r="W172" s="11"/>
     </row>
-    <row r="173" spans="7:23">
+    <row r="173" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G173" s="11"/>
       <c r="J173" s="11"/>
       <c r="W173" s="11"/>
     </row>
-    <row r="174" spans="7:23">
+    <row r="174" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G174" s="11"/>
       <c r="J174" s="11"/>
       <c r="W174" s="11"/>
     </row>
-    <row r="175" spans="7:23">
+    <row r="175" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G175" s="11"/>
       <c r="J175" s="11"/>
       <c r="W175" s="11"/>
     </row>
-    <row r="176" spans="7:23">
+    <row r="176" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G176" s="11"/>
       <c r="J176" s="11"/>
       <c r="W176" s="11"/>
     </row>
-    <row r="177" spans="7:23">
+    <row r="177" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G177" s="11"/>
       <c r="J177" s="11"/>
       <c r="W177" s="11"/>
     </row>
-    <row r="178" spans="7:23">
+    <row r="178" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G178" s="11"/>
       <c r="J178" s="11"/>
       <c r="W178" s="11"/>
     </row>
-    <row r="179" spans="7:23">
+    <row r="179" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G179" s="11"/>
       <c r="J179" s="11"/>
       <c r="W179" s="11"/>
     </row>
-    <row r="180" spans="7:23">
+    <row r="180" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G180" s="11"/>
       <c r="J180" s="11"/>
       <c r="W180" s="11"/>
     </row>
-    <row r="181" spans="7:23">
+    <row r="181" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G181" s="11"/>
       <c r="J181" s="11"/>
       <c r="W181" s="11"/>
     </row>
-    <row r="182" spans="7:23">
+    <row r="182" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G182" s="11"/>
       <c r="J182" s="11"/>
       <c r="W182" s="11"/>
     </row>
-    <row r="183" spans="7:23">
+    <row r="183" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G183" s="11"/>
       <c r="J183" s="11"/>
       <c r="W183" s="11"/>
     </row>
-    <row r="184" spans="7:23">
+    <row r="184" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G184" s="11"/>
       <c r="J184" s="11"/>
       <c r="W184" s="11"/>
     </row>
-    <row r="185" spans="7:23">
+    <row r="185" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G185" s="11"/>
       <c r="J185" s="11"/>
       <c r="W185" s="11"/>
     </row>
-    <row r="186" spans="7:23">
+    <row r="186" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G186" s="11"/>
       <c r="J186" s="11"/>
       <c r="W186" s="11"/>
     </row>
-    <row r="187" spans="7:23">
+    <row r="187" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G187" s="11"/>
       <c r="J187" s="11"/>
       <c r="W187" s="11"/>
     </row>
-    <row r="188" spans="7:23">
+    <row r="188" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G188" s="11"/>
       <c r="J188" s="11"/>
       <c r="W188" s="11"/>
     </row>
-    <row r="189" spans="7:23">
+    <row r="189" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G189" s="11"/>
       <c r="J189" s="11"/>
       <c r="W189" s="11"/>
     </row>
-    <row r="190" spans="7:23">
+    <row r="190" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G190" s="11"/>
       <c r="J190" s="11"/>
       <c r="W190" s="11"/>
     </row>
-    <row r="191" spans="7:23">
+    <row r="191" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G191" s="11"/>
       <c r="J191" s="11"/>
       <c r="W191" s="11"/>
     </row>
-    <row r="192" spans="7:23">
+    <row r="192" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G192" s="11"/>
       <c r="J192" s="11"/>
       <c r="W192" s="11"/>
     </row>
-    <row r="193" spans="7:23">
+    <row r="193" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G193" s="11"/>
       <c r="J193" s="11"/>
       <c r="W193" s="11"/>
     </row>
-    <row r="194" spans="7:23">
+    <row r="194" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G194" s="11"/>
       <c r="J194" s="11"/>
       <c r="W194" s="11"/>
     </row>
-    <row r="195" spans="7:23">
+    <row r="195" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G195" s="11"/>
       <c r="J195" s="11"/>
       <c r="W195" s="11"/>
     </row>
-    <row r="196" spans="7:23">
+    <row r="196" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G196" s="11"/>
       <c r="J196" s="11"/>
       <c r="W196" s="11"/>
     </row>
-    <row r="197" spans="7:23">
+    <row r="197" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G197" s="11"/>
       <c r="J197" s="11"/>
       <c r="W197" s="11"/>
     </row>
-    <row r="198" spans="7:23">
+    <row r="198" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G198" s="11"/>
       <c r="J198" s="11"/>
       <c r="W198" s="11"/>
     </row>
-    <row r="199" spans="7:23">
+    <row r="199" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G199" s="11"/>
       <c r="J199" s="11"/>
       <c r="W199" s="11"/>
     </row>
-    <row r="200" spans="7:23">
+    <row r="200" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G200" s="11"/>
       <c r="J200" s="11"/>
       <c r="W200" s="11"/>
     </row>
-    <row r="201" spans="7:23">
+    <row r="201" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G201" s="11"/>
       <c r="J201" s="11"/>
       <c r="W201" s="11"/>
     </row>
-    <row r="202" spans="7:23">
+    <row r="202" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G202" s="11"/>
       <c r="J202" s="11"/>
       <c r="W202" s="11"/>
     </row>
-    <row r="203" spans="7:23">
+    <row r="203" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G203" s="11"/>
       <c r="J203" s="11"/>
       <c r="W203" s="11"/>
     </row>
-    <row r="204" spans="7:23">
+    <row r="204" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G204" s="11"/>
       <c r="J204" s="11"/>
       <c r="W204" s="11"/>
     </row>
-    <row r="205" spans="7:23">
+    <row r="205" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G205" s="11"/>
       <c r="J205" s="11"/>
       <c r="W205" s="11"/>
     </row>
-    <row r="206" spans="7:23">
+    <row r="206" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G206" s="11"/>
       <c r="J206" s="11"/>
       <c r="W206" s="11"/>
     </row>
-    <row r="207" spans="7:23">
+    <row r="207" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G207" s="11"/>
       <c r="J207" s="11"/>
       <c r="W207" s="11"/>
     </row>
-    <row r="208" spans="7:23">
+    <row r="208" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G208" s="11"/>
       <c r="J208" s="11"/>
       <c r="W208" s="11"/>
     </row>
-    <row r="209" spans="7:23">
+    <row r="209" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G209" s="11"/>
       <c r="J209" s="11"/>
       <c r="W209" s="11"/>
     </row>
-    <row r="210" spans="7:23">
+    <row r="210" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G210" s="11"/>
       <c r="J210" s="11"/>
       <c r="W210" s="11"/>
     </row>
-    <row r="211" spans="7:23">
+    <row r="211" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G211" s="11"/>
       <c r="J211" s="11"/>
       <c r="W211" s="11"/>
     </row>
-    <row r="212" spans="7:23">
+    <row r="212" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G212" s="11"/>
       <c r="J212" s="11"/>
       <c r="W212" s="11"/>
     </row>
-    <row r="213" spans="7:23">
+    <row r="213" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G213" s="11"/>
       <c r="J213" s="11"/>
       <c r="W213" s="11"/>
     </row>
-    <row r="214" spans="7:23">
+    <row r="214" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G214" s="11"/>
       <c r="J214" s="11"/>
       <c r="W214" s="11"/>
     </row>
-    <row r="215" spans="7:23">
+    <row r="215" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G215" s="11"/>
       <c r="J215" s="11"/>
       <c r="W215" s="11"/>
     </row>
-    <row r="216" spans="7:23">
+    <row r="216" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G216" s="11"/>
       <c r="J216" s="11"/>
       <c r="W216" s="11"/>
     </row>
-    <row r="217" spans="7:23">
+    <row r="217" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G217" s="11"/>
       <c r="J217" s="11"/>
       <c r="W217" s="11"/>
     </row>
-    <row r="218" spans="7:23">
+    <row r="218" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G218" s="11"/>
       <c r="J218" s="11"/>
       <c r="W218" s="11"/>
     </row>
-    <row r="219" spans="7:23">
+    <row r="219" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G219" s="11"/>
       <c r="J219" s="11"/>
       <c r="W219" s="11"/>
     </row>
-    <row r="220" spans="7:23">
+    <row r="220" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G220" s="11"/>
       <c r="J220" s="11"/>
       <c r="W220" s="11"/>
     </row>
-    <row r="221" spans="7:23">
+    <row r="221" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G221" s="11"/>
       <c r="J221" s="11"/>
       <c r="W221" s="11"/>
     </row>
-    <row r="222" spans="7:23">
+    <row r="222" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G222" s="11"/>
       <c r="J222" s="11"/>
       <c r="W222" s="11"/>
     </row>
-    <row r="223" spans="7:23">
+    <row r="223" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G223" s="11"/>
       <c r="J223" s="11"/>
       <c r="W223" s="11"/>
     </row>
-    <row r="224" spans="7:23">
+    <row r="224" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G224" s="11"/>
       <c r="J224" s="11"/>
       <c r="W224" s="11"/>
     </row>
-    <row r="225" spans="7:23">
+    <row r="225" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G225" s="11"/>
       <c r="J225" s="11"/>
       <c r="W225" s="11"/>
     </row>
-    <row r="226" spans="7:23">
+    <row r="226" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G226" s="11"/>
       <c r="J226" s="11"/>
       <c r="W226" s="11"/>
     </row>
-    <row r="227" spans="7:23">
+    <row r="227" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G227" s="11"/>
       <c r="J227" s="11"/>
       <c r="W227" s="11"/>
     </row>
-    <row r="228" spans="7:23">
+    <row r="228" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G228" s="11"/>
       <c r="J228" s="11"/>
       <c r="W228" s="11"/>
     </row>
-    <row r="229" spans="7:23">
+    <row r="229" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G229" s="11"/>
       <c r="J229" s="11"/>
       <c r="W229" s="11"/>
     </row>
-    <row r="230" spans="7:23">
+    <row r="230" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G230" s="11"/>
       <c r="J230" s="11"/>
       <c r="W230" s="11"/>
     </row>
-    <row r="231" spans="7:23">
+    <row r="231" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G231" s="11"/>
       <c r="J231" s="11"/>
       <c r="W231" s="11"/>
     </row>
-    <row r="232" spans="7:23">
+    <row r="232" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G232" s="11"/>
       <c r="J232" s="11"/>
       <c r="W232" s="11"/>
     </row>
-    <row r="233" spans="7:23">
+    <row r="233" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G233" s="11"/>
       <c r="J233" s="11"/>
       <c r="W233" s="11"/>
     </row>
-    <row r="234" spans="7:23">
+    <row r="234" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G234" s="11"/>
       <c r="J234" s="11"/>
       <c r="W234" s="11"/>
     </row>
-    <row r="235" spans="7:23">
+    <row r="235" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G235" s="11"/>
       <c r="J235" s="11"/>
       <c r="W235" s="11"/>
     </row>
-    <row r="236" spans="7:23">
+    <row r="236" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G236" s="11"/>
       <c r="J236" s="11"/>
       <c r="W236" s="11"/>
     </row>
-    <row r="237" spans="7:23">
+    <row r="237" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G237" s="11"/>
       <c r="J237" s="11"/>
       <c r="W237" s="11"/>
     </row>
-    <row r="238" spans="7:23">
+    <row r="238" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G238" s="11"/>
       <c r="J238" s="11"/>
       <c r="W238" s="11"/>
     </row>
-    <row r="239" spans="7:23">
+    <row r="239" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G239" s="11"/>
       <c r="J239" s="11"/>
       <c r="W239" s="11"/>
     </row>
-    <row r="240" spans="7:23">
+    <row r="240" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G240" s="11"/>
       <c r="J240" s="11"/>
       <c r="W240" s="11"/>
     </row>
-    <row r="241" spans="7:23">
+    <row r="241" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G241" s="11"/>
       <c r="J241" s="11"/>
       <c r="W241" s="11"/>
     </row>
-    <row r="242" spans="7:23">
+    <row r="242" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G242" s="11"/>
       <c r="J242" s="11"/>
       <c r="W242" s="11"/>
     </row>
-    <row r="243" spans="7:23">
+    <row r="243" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G243" s="11"/>
       <c r="J243" s="11"/>
       <c r="W243" s="11"/>
     </row>
-    <row r="244" spans="7:23">
+    <row r="244" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G244" s="11"/>
       <c r="J244" s="11"/>
       <c r="W244" s="11"/>
     </row>
-    <row r="245" spans="7:23">
+    <row r="245" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G245" s="11"/>
       <c r="J245" s="11"/>
       <c r="W245" s="11"/>
     </row>
-    <row r="246" spans="7:23">
+    <row r="246" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G246" s="11"/>
       <c r="J246" s="11"/>
       <c r="W246" s="11"/>
     </row>
-    <row r="247" spans="7:23">
+    <row r="247" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G247" s="11"/>
       <c r="J247" s="11"/>
       <c r="W247" s="11"/>
     </row>
-    <row r="248" spans="7:23">
+    <row r="248" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G248" s="11"/>
       <c r="J248" s="11"/>
       <c r="W248" s="11"/>
     </row>
-    <row r="249" spans="7:23">
+    <row r="249" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G249" s="11"/>
       <c r="J249" s="11"/>
       <c r="W249" s="11"/>
     </row>
-    <row r="250" spans="7:23">
+    <row r="250" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G250" s="11"/>
       <c r="J250" s="11"/>
       <c r="W250" s="11"/>
     </row>
-    <row r="251" spans="7:23">
+    <row r="251" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G251" s="11"/>
       <c r="J251" s="11"/>
       <c r="W251" s="11"/>
     </row>
-    <row r="252" spans="7:23">
+    <row r="252" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G252" s="11"/>
       <c r="J252" s="11"/>
       <c r="W252" s="11"/>
     </row>
-    <row r="253" spans="7:23">
+    <row r="253" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G253" s="11"/>
       <c r="J253" s="11"/>
       <c r="W253" s="11"/>
     </row>
-    <row r="254" spans="7:23">
+    <row r="254" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G254" s="11"/>
       <c r="J254" s="11"/>
       <c r="W254" s="11"/>
     </row>
-    <row r="255" spans="7:23">
+    <row r="255" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G255" s="11"/>
       <c r="J255" s="11"/>
       <c r="W255" s="11"/>
     </row>
-    <row r="256" spans="7:23">
+    <row r="256" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G256" s="11"/>
       <c r="J256" s="11"/>
       <c r="W256" s="11"/>
     </row>
-    <row r="257" spans="7:23">
+    <row r="257" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G257" s="11"/>
       <c r="J257" s="11"/>
       <c r="W257" s="11"/>
     </row>
-    <row r="258" spans="7:23">
+    <row r="258" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G258" s="11"/>
       <c r="J258" s="11"/>
       <c r="W258" s="11"/>
     </row>
-    <row r="259" spans="7:23">
+    <row r="259" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G259" s="11"/>
       <c r="J259" s="11"/>
       <c r="W259" s="11"/>
     </row>
-    <row r="260" spans="7:23">
+    <row r="260" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G260" s="11"/>
       <c r="J260" s="11"/>
       <c r="W260" s="11"/>
     </row>
-    <row r="261" spans="7:23">
+    <row r="261" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G261" s="11"/>
       <c r="J261" s="11"/>
       <c r="W261" s="11"/>
     </row>
-    <row r="262" spans="7:23">
+    <row r="262" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G262" s="11"/>
       <c r="J262" s="11"/>
       <c r="W262" s="11"/>
     </row>
-    <row r="263" spans="7:23">
+    <row r="263" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G263" s="11"/>
       <c r="J263" s="11"/>
       <c r="W263" s="11"/>
     </row>
-    <row r="264" spans="7:23">
+    <row r="264" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G264" s="11"/>
       <c r="J264" s="11"/>
       <c r="W264" s="11"/>
     </row>
-    <row r="265" spans="7:23">
+    <row r="265" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G265" s="11"/>
       <c r="J265" s="11"/>
       <c r="W265" s="11"/>
     </row>
-    <row r="266" spans="7:23">
+    <row r="266" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G266" s="11"/>
       <c r="J266" s="11"/>
       <c r="W266" s="11"/>
     </row>
-    <row r="267" spans="7:23">
+    <row r="267" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G267" s="11"/>
       <c r="J267" s="11"/>
       <c r="W267" s="11"/>
     </row>
-    <row r="268" spans="7:23">
+    <row r="268" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G268" s="11"/>
       <c r="J268" s="11"/>
       <c r="W268" s="11"/>
     </row>
-    <row r="269" spans="7:23">
+    <row r="269" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G269" s="11"/>
       <c r="J269" s="11"/>
       <c r="W269" s="11"/>
     </row>
-    <row r="270" spans="7:23">
+    <row r="270" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G270" s="11"/>
       <c r="J270" s="11"/>
       <c r="W270" s="11"/>
     </row>
-    <row r="271" spans="7:23">
+    <row r="271" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G271" s="11"/>
       <c r="J271" s="11"/>
       <c r="W271" s="11"/>
     </row>
-    <row r="272" spans="7:23">
+    <row r="272" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G272" s="11"/>
       <c r="J272" s="11"/>
       <c r="W272" s="11"/>
     </row>
-    <row r="273" spans="7:23">
+    <row r="273" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G273" s="11"/>
       <c r="J273" s="11"/>
       <c r="W273" s="11"/>
     </row>
-    <row r="274" spans="7:23">
+    <row r="274" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G274" s="11"/>
       <c r="J274" s="11"/>
       <c r="W274" s="11"/>
     </row>
-    <row r="275" spans="7:23">
+    <row r="275" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G275" s="11"/>
       <c r="J275" s="11"/>
       <c r="W275" s="11"/>
     </row>
-    <row r="276" spans="7:23">
+    <row r="276" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G276" s="11"/>
       <c r="J276" s="11"/>
       <c r="W276" s="11"/>
     </row>
-    <row r="277" spans="7:23">
+    <row r="277" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G277" s="11"/>
       <c r="J277" s="11"/>
       <c r="W277" s="11"/>
     </row>
-    <row r="278" spans="7:23">
+    <row r="278" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G278" s="11"/>
       <c r="J278" s="11"/>
       <c r="W278" s="11"/>
     </row>
-    <row r="279" spans="7:23">
+    <row r="279" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G279" s="11"/>
       <c r="J279" s="11"/>
       <c r="W279" s="11"/>
     </row>
-    <row r="280" spans="7:23">
+    <row r="280" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G280" s="11"/>
       <c r="J280" s="11"/>
       <c r="W280" s="11"/>
     </row>
-    <row r="281" spans="7:23">
+    <row r="281" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G281" s="11"/>
       <c r="J281" s="11"/>
       <c r="W281" s="11"/>
     </row>
-    <row r="282" spans="7:23">
+    <row r="282" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G282" s="11"/>
       <c r="J282" s="11"/>
       <c r="W282" s="11"/>
     </row>
-    <row r="283" spans="7:23">
+    <row r="283" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G283" s="11"/>
       <c r="J283" s="11"/>
       <c r="W283" s="11"/>
     </row>
-    <row r="284" spans="7:23">
+    <row r="284" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G284" s="11"/>
       <c r="J284" s="11"/>
       <c r="W284" s="11"/>
     </row>
-    <row r="285" spans="7:23">
+    <row r="285" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G285" s="11"/>
       <c r="J285" s="11"/>
       <c r="W285" s="11"/>
     </row>
-    <row r="286" spans="7:23">
+    <row r="286" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G286" s="11"/>
       <c r="J286" s="11"/>
       <c r="W286" s="11"/>
     </row>
-    <row r="287" spans="7:23">
+    <row r="287" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G287" s="11"/>
       <c r="J287" s="11"/>
       <c r="W287" s="11"/>
     </row>
-    <row r="288" spans="7:23">
+    <row r="288" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G288" s="11"/>
       <c r="J288" s="11"/>
       <c r="W288" s="11"/>
     </row>
-    <row r="289" spans="7:23">
+    <row r="289" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G289" s="11"/>
       <c r="J289" s="11"/>
       <c r="W289" s="11"/>
     </row>
-    <row r="290" spans="7:23">
+    <row r="290" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G290" s="11"/>
       <c r="J290" s="11"/>
       <c r="W290" s="11"/>
     </row>
-    <row r="291" spans="7:23">
+    <row r="291" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G291" s="11"/>
       <c r="J291" s="11"/>
       <c r="W291" s="11"/>
     </row>
-    <row r="292" spans="7:23">
+    <row r="292" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G292" s="11"/>
       <c r="J292" s="11"/>
       <c r="W292" s="11"/>
     </row>
-    <row r="293" spans="7:23">
+    <row r="293" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G293" s="11"/>
       <c r="J293" s="11"/>
       <c r="W293" s="11"/>
     </row>
-    <row r="294" spans="7:23">
+    <row r="294" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G294" s="11"/>
       <c r="J294" s="11"/>
       <c r="W294" s="11"/>
     </row>
-    <row r="295" spans="7:23">
+    <row r="295" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G295" s="11"/>
       <c r="J295" s="11"/>
       <c r="W295" s="11"/>
     </row>
-    <row r="296" spans="7:23">
+    <row r="296" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G296" s="11"/>
       <c r="J296" s="11"/>
       <c r="W296" s="11"/>
     </row>
-    <row r="297" spans="7:23">
+    <row r="297" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G297" s="11"/>
       <c r="J297" s="11"/>
       <c r="W297" s="11"/>
     </row>
-    <row r="298" spans="7:23">
+    <row r="298" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G298" s="11"/>
       <c r="J298" s="11"/>
       <c r="W298" s="11"/>
     </row>
-    <row r="299" spans="7:23">
+    <row r="299" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G299" s="11"/>
       <c r="J299" s="11"/>
       <c r="W299" s="11"/>
     </row>
-    <row r="300" spans="7:23">
+    <row r="300" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G300" s="11"/>
       <c r="J300" s="11"/>
       <c r="W300" s="11"/>
     </row>
-    <row r="301" spans="7:23">
+    <row r="301" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G301" s="11"/>
       <c r="J301" s="11"/>
       <c r="W301" s="11"/>
     </row>
-    <row r="302" spans="7:23">
+    <row r="302" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G302" s="11"/>
       <c r="J302" s="11"/>
       <c r="W302" s="11"/>
     </row>
-    <row r="303" spans="7:23">
+    <row r="303" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G303" s="11"/>
       <c r="J303" s="11"/>
       <c r="W303" s="11"/>
     </row>
-    <row r="304" spans="7:23">
+    <row r="304" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G304" s="11"/>
       <c r="J304" s="11"/>
       <c r="W304" s="11"/>
     </row>
-    <row r="305" spans="7:23">
+    <row r="305" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G305" s="11"/>
       <c r="J305" s="11"/>
       <c r="W305" s="11"/>
     </row>
-    <row r="306" spans="7:23">
+    <row r="306" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G306" s="11"/>
       <c r="J306" s="11"/>
       <c r="W306" s="11"/>
     </row>
-    <row r="307" spans="7:23">
+    <row r="307" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G307" s="11"/>
       <c r="J307" s="11"/>
       <c r="W307" s="11"/>
     </row>
-    <row r="308" spans="7:23">
+    <row r="308" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G308" s="11"/>
       <c r="J308" s="11"/>
       <c r="W308" s="11"/>
     </row>
-    <row r="309" spans="7:23">
+    <row r="309" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G309" s="11"/>
       <c r="J309" s="11"/>
       <c r="W309" s="11"/>
     </row>
-    <row r="310" spans="7:23">
+    <row r="310" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G310" s="11"/>
       <c r="J310" s="11"/>
       <c r="W310" s="11"/>
     </row>
-    <row r="311" spans="7:23">
+    <row r="311" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G311" s="11"/>
       <c r="J311" s="11"/>
       <c r="W311" s="11"/>
     </row>
-    <row r="312" spans="7:23">
+    <row r="312" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G312" s="11"/>
       <c r="J312" s="11"/>
       <c r="W312" s="11"/>
     </row>
-    <row r="313" spans="7:23">
+    <row r="313" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G313" s="11"/>
       <c r="J313" s="11"/>
       <c r="W313" s="11"/>
     </row>
-    <row r="314" spans="7:23">
+    <row r="314" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G314" s="11"/>
       <c r="J314" s="11"/>
       <c r="W314" s="11"/>
     </row>
-    <row r="315" spans="7:23">
+    <row r="315" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G315" s="11"/>
       <c r="J315" s="11"/>
       <c r="W315" s="11"/>
     </row>
-    <row r="316" spans="7:23">
+    <row r="316" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G316" s="11"/>
       <c r="J316" s="11"/>
       <c r="W316" s="11"/>
     </row>
-    <row r="317" spans="7:23">
+    <row r="317" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G317" s="11"/>
       <c r="J317" s="11"/>
       <c r="W317" s="11"/>
     </row>
-    <row r="318" spans="7:23">
+    <row r="318" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G318" s="11"/>
       <c r="J318" s="11"/>
       <c r="W318" s="11"/>
     </row>
-    <row r="319" spans="7:23">
+    <row r="319" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G319" s="11"/>
       <c r="J319" s="11"/>
       <c r="W319" s="11"/>
     </row>
-    <row r="320" spans="7:23">
+    <row r="320" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G320" s="11"/>
       <c r="J320" s="11"/>
       <c r="W320" s="11"/>
     </row>
-    <row r="321" spans="7:23">
+    <row r="321" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G321" s="11"/>
       <c r="J321" s="11"/>
       <c r="W321" s="11"/>
     </row>
-    <row r="322" spans="7:23">
+    <row r="322" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G322" s="11"/>
       <c r="J322" s="11"/>
       <c r="W322" s="11"/>
     </row>
-    <row r="323" spans="7:23">
+    <row r="323" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G323" s="11"/>
       <c r="J323" s="11"/>
       <c r="W323" s="11"/>
     </row>
-    <row r="324" spans="7:23">
+    <row r="324" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G324" s="11"/>
       <c r="J324" s="11"/>
       <c r="W324" s="11"/>
     </row>
-    <row r="325" spans="7:23">
+    <row r="325" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G325" s="11"/>
       <c r="J325" s="11"/>
       <c r="W325" s="11"/>
     </row>
-    <row r="326" spans="7:23">
+    <row r="326" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G326" s="11"/>
       <c r="J326" s="11"/>
       <c r="W326" s="11"/>
     </row>
-    <row r="327" spans="7:23">
+    <row r="327" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G327" s="11"/>
       <c r="J327" s="11"/>
       <c r="W327" s="11"/>
     </row>
-    <row r="328" spans="7:23">
+    <row r="328" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G328" s="11"/>
       <c r="J328" s="11"/>
       <c r="W328" s="11"/>
     </row>
-    <row r="329" spans="7:23">
+    <row r="329" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G329" s="11"/>
       <c r="J329" s="11"/>
       <c r="W329" s="11"/>
     </row>
-    <row r="330" spans="7:23">
+    <row r="330" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G330" s="11"/>
       <c r="J330" s="11"/>
       <c r="W330" s="11"/>
     </row>
-    <row r="331" spans="7:23">
+    <row r="331" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G331" s="11"/>
       <c r="J331" s="11"/>
       <c r="W331" s="11"/>
     </row>
-    <row r="332" spans="7:23">
+    <row r="332" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G332" s="11"/>
       <c r="J332" s="11"/>
       <c r="W332" s="11"/>
     </row>
-    <row r="333" spans="7:23">
+    <row r="333" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G333" s="11"/>
       <c r="J333" s="11"/>
       <c r="W333" s="11"/>
     </row>
-    <row r="334" spans="7:23">
+    <row r="334" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G334" s="11"/>
       <c r="J334" s="11"/>
       <c r="W334" s="11"/>
     </row>
-    <row r="335" spans="7:23">
+    <row r="335" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G335" s="11"/>
       <c r="J335" s="11"/>
       <c r="W335" s="11"/>
     </row>
-    <row r="336" spans="7:23">
+    <row r="336" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G336" s="11"/>
       <c r="J336" s="11"/>
       <c r="W336" s="11"/>
     </row>
-    <row r="337" spans="7:23">
+    <row r="337" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G337" s="11"/>
       <c r="J337" s="11"/>
       <c r="W337" s="11"/>
     </row>
-    <row r="338" spans="7:23">
+    <row r="338" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G338" s="11"/>
       <c r="J338" s="11"/>
       <c r="W338" s="11"/>
     </row>
-    <row r="339" spans="7:23">
+    <row r="339" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G339" s="11"/>
       <c r="J339" s="11"/>
       <c r="W339" s="11"/>
     </row>
-    <row r="340" spans="7:23">
+    <row r="340" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G340" s="11"/>
       <c r="J340" s="11"/>
       <c r="W340" s="11"/>
     </row>
-    <row r="341" spans="7:23">
+    <row r="341" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G341" s="11"/>
       <c r="J341" s="11"/>
       <c r="W341" s="11"/>
     </row>
-    <row r="342" spans="7:23">
+    <row r="342" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G342" s="11"/>
       <c r="J342" s="11"/>
       <c r="W342" s="11"/>
     </row>
-    <row r="343" spans="7:23">
+    <row r="343" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G343" s="11"/>
       <c r="J343" s="11"/>
       <c r="W343" s="11"/>
     </row>
-    <row r="344" spans="7:23">
+    <row r="344" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G344" s="11"/>
       <c r="J344" s="11"/>
       <c r="W344" s="11"/>
     </row>
-    <row r="345" spans="7:23">
+    <row r="345" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G345" s="11"/>
       <c r="J345" s="11"/>
       <c r="W345" s="11"/>
     </row>
-    <row r="346" spans="7:23">
+    <row r="346" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G346" s="11"/>
       <c r="J346" s="11"/>
       <c r="W346" s="11"/>
     </row>
-    <row r="347" spans="7:23">
+    <row r="347" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G347" s="11"/>
       <c r="J347" s="11"/>
       <c r="W347" s="11"/>
     </row>
-    <row r="348" spans="7:23">
+    <row r="348" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G348" s="11"/>
       <c r="J348" s="11"/>
       <c r="W348" s="11"/>
     </row>
-    <row r="349" spans="7:23">
+    <row r="349" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G349" s="11"/>
       <c r="J349" s="11"/>
       <c r="W349" s="11"/>
     </row>
-    <row r="350" spans="7:23">
+    <row r="350" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G350" s="11"/>
       <c r="J350" s="11"/>
       <c r="W350" s="11"/>
     </row>
-    <row r="351" spans="7:23">
+    <row r="351" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G351" s="11"/>
       <c r="J351" s="11"/>
       <c r="W351" s="11"/>
     </row>
-    <row r="352" spans="7:23">
+    <row r="352" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G352" s="11"/>
       <c r="J352" s="11"/>
       <c r="W352" s="11"/>
     </row>
-    <row r="353" spans="7:23">
+    <row r="353" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G353" s="11"/>
       <c r="J353" s="11"/>
       <c r="W353" s="11"/>
     </row>
-    <row r="354" spans="7:23">
+    <row r="354" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G354" s="11"/>
       <c r="J354" s="11"/>
       <c r="W354" s="11"/>
     </row>
-    <row r="355" spans="7:23">
+    <row r="355" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G355" s="11"/>
       <c r="J355" s="11"/>
       <c r="W355" s="11"/>
     </row>
-    <row r="356" spans="7:23">
+    <row r="356" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G356" s="11"/>
       <c r="J356" s="11"/>
       <c r="W356" s="11"/>
     </row>
-    <row r="357" spans="7:23">
+    <row r="357" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G357" s="11"/>
       <c r="J357" s="11"/>
       <c r="W357" s="11"/>
     </row>
-    <row r="358" spans="7:23">
+    <row r="358" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G358" s="11"/>
       <c r="J358" s="11"/>
       <c r="W358" s="11"/>
     </row>
-    <row r="359" spans="7:23">
+    <row r="359" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G359" s="11"/>
       <c r="J359" s="11"/>
       <c r="W359" s="11"/>
     </row>
-    <row r="360" spans="7:23">
+    <row r="360" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G360" s="11"/>
       <c r="J360" s="11"/>
       <c r="W360" s="11"/>
     </row>
-    <row r="361" spans="7:23">
+    <row r="361" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G361" s="11"/>
       <c r="J361" s="11"/>
       <c r="W361" s="11"/>
     </row>
-    <row r="362" spans="7:23">
+    <row r="362" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G362" s="11"/>
       <c r="J362" s="11"/>
       <c r="W362" s="11"/>
     </row>
-    <row r="363" spans="7:23">
+    <row r="363" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G363" s="11"/>
       <c r="J363" s="11"/>
       <c r="W363" s="11"/>
     </row>
-    <row r="364" spans="7:23">
+    <row r="364" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G364" s="11"/>
       <c r="J364" s="11"/>
       <c r="W364" s="11"/>
     </row>
-    <row r="365" spans="7:23">
+    <row r="365" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G365" s="11"/>
       <c r="J365" s="11"/>
       <c r="W365" s="11"/>
     </row>
-    <row r="366" spans="7:23">
+    <row r="366" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G366" s="11"/>
       <c r="J366" s="11"/>
       <c r="W366" s="11"/>
     </row>
-    <row r="367" spans="7:23">
+    <row r="367" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G367" s="11"/>
       <c r="J367" s="11"/>
       <c r="W367" s="11"/>
     </row>
-    <row r="368" spans="7:23">
+    <row r="368" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G368" s="11"/>
       <c r="J368" s="11"/>
       <c r="W368" s="11"/>
     </row>
-    <row r="369" spans="7:23">
+    <row r="369" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G369" s="11"/>
       <c r="J369" s="11"/>
       <c r="W369" s="11"/>
     </row>
-    <row r="370" spans="7:23">
+    <row r="370" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G370" s="11"/>
       <c r="J370" s="11"/>
       <c r="W370" s="11"/>
     </row>
-    <row r="371" spans="7:23">
+    <row r="371" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G371" s="11"/>
       <c r="J371" s="11"/>
       <c r="W371" s="11"/>
     </row>
-    <row r="372" spans="7:23">
+    <row r="372" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G372" s="11"/>
       <c r="J372" s="11"/>
       <c r="W372" s="11"/>
     </row>
-    <row r="373" spans="7:23">
+    <row r="373" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G373" s="11"/>
       <c r="J373" s="11"/>
       <c r="W373" s="11"/>
     </row>
-    <row r="374" spans="7:23">
+    <row r="374" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G374" s="11"/>
       <c r="J374" s="11"/>
       <c r="W374" s="11"/>
     </row>
-    <row r="375" spans="7:23">
+    <row r="375" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G375" s="11"/>
       <c r="J375" s="11"/>
       <c r="W375" s="11"/>
     </row>
-    <row r="376" spans="7:23">
+    <row r="376" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G376" s="11"/>
       <c r="J376" s="11"/>
       <c r="W376" s="11"/>
     </row>
-    <row r="377" spans="7:23">
+    <row r="377" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G377" s="11"/>
       <c r="J377" s="11"/>
       <c r="W377" s="11"/>
     </row>
-    <row r="378" spans="7:23">
+    <row r="378" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G378" s="11"/>
       <c r="J378" s="11"/>
       <c r="W378" s="11"/>
     </row>
-    <row r="379" spans="7:23">
+    <row r="379" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G379" s="11"/>
       <c r="J379" s="11"/>
       <c r="W379" s="11"/>
     </row>
-    <row r="380" spans="7:23">
+    <row r="380" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G380" s="11"/>
       <c r="J380" s="11"/>
       <c r="W380" s="11"/>
     </row>
-    <row r="381" spans="7:23">
+    <row r="381" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G381" s="11"/>
       <c r="J381" s="11"/>
       <c r="W381" s="11"/>
     </row>
-    <row r="382" spans="7:23">
+    <row r="382" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G382" s="11"/>
       <c r="J382" s="11"/>
       <c r="W382" s="11"/>
     </row>
-    <row r="383" spans="7:23">
+    <row r="383" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G383" s="11"/>
       <c r="J383" s="11"/>
       <c r="W383" s="11"/>
     </row>
-    <row r="384" spans="7:23">
+    <row r="384" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G384" s="11"/>
       <c r="J384" s="11"/>
       <c r="W384" s="11"/>
     </row>
-    <row r="385" spans="7:23">
+    <row r="385" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G385" s="11"/>
       <c r="J385" s="11"/>
       <c r="W385" s="11"/>
     </row>
-    <row r="386" spans="7:23">
+    <row r="386" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G386" s="11"/>
       <c r="J386" s="11"/>
       <c r="W386" s="11"/>
     </row>
-    <row r="387" spans="7:23">
+    <row r="387" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G387" s="11"/>
       <c r="J387" s="11"/>
       <c r="W387" s="11"/>
     </row>
-    <row r="388" spans="7:23">
+    <row r="388" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G388" s="11"/>
       <c r="J388" s="11"/>
       <c r="W388" s="11"/>
     </row>
-    <row r="389" spans="7:23">
+    <row r="389" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G389" s="11"/>
       <c r="J389" s="11"/>
       <c r="W389" s="11"/>
     </row>
-    <row r="390" spans="7:23">
+    <row r="390" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G390" s="11"/>
       <c r="J390" s="11"/>
       <c r="W390" s="11"/>
     </row>
-    <row r="391" spans="7:23">
+    <row r="391" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G391" s="11"/>
       <c r="J391" s="11"/>
       <c r="W391" s="11"/>
     </row>
-    <row r="392" spans="7:23">
+    <row r="392" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G392" s="11"/>
       <c r="J392" s="11"/>
       <c r="W392" s="11"/>
     </row>
-    <row r="393" spans="7:23">
+    <row r="393" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G393" s="11"/>
       <c r="J393" s="11"/>
       <c r="W393" s="11"/>
     </row>
-    <row r="394" spans="7:23">
+    <row r="394" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G394" s="11"/>
       <c r="J394" s="11"/>
       <c r="W394" s="11"/>
     </row>
-    <row r="395" spans="7:23">
+    <row r="395" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G395" s="11"/>
       <c r="J395" s="11"/>
       <c r="W395" s="11"/>
     </row>
-    <row r="396" spans="7:23">
+    <row r="396" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G396" s="11"/>
       <c r="J396" s="11"/>
       <c r="W396" s="11"/>
     </row>
-    <row r="397" spans="7:23">
+    <row r="397" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G397" s="11"/>
       <c r="J397" s="11"/>
       <c r="W397" s="11"/>
     </row>
-    <row r="398" spans="7:23">
+    <row r="398" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G398" s="11"/>
       <c r="J398" s="11"/>
       <c r="W398" s="11"/>
     </row>
-    <row r="399" spans="7:23">
+    <row r="399" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G399" s="11"/>
       <c r="J399" s="11"/>
       <c r="W399" s="11"/>
     </row>
-    <row r="400" spans="7:23">
+    <row r="400" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G400" s="11"/>
       <c r="J400" s="11"/>
       <c r="W400" s="11"/>
     </row>
-    <row r="401" spans="7:23">
+    <row r="401" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G401" s="11"/>
       <c r="J401" s="11"/>
       <c r="W401" s="11"/>
     </row>
-    <row r="402" spans="7:23">
+    <row r="402" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G402" s="11"/>
       <c r="J402" s="11"/>
       <c r="W402" s="11"/>
     </row>
-    <row r="403" spans="7:23">
+    <row r="403" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G403" s="11"/>
       <c r="J403" s="11"/>
       <c r="W403" s="11"/>
     </row>
-    <row r="404" spans="7:23">
+    <row r="404" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G404" s="11"/>
       <c r="J404" s="11"/>
       <c r="W404" s="11"/>
     </row>
-    <row r="405" spans="7:23">
+    <row r="405" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G405" s="11"/>
       <c r="J405" s="11"/>
       <c r="W405" s="11"/>
     </row>
-    <row r="406" spans="7:23">
+    <row r="406" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G406" s="11"/>
       <c r="J406" s="11"/>
       <c r="W406" s="11"/>
     </row>
-    <row r="407" spans="7:23">
+    <row r="407" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G407" s="11"/>
       <c r="J407" s="11"/>
       <c r="W407" s="11"/>
     </row>
-    <row r="408" spans="7:23">
+    <row r="408" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G408" s="11"/>
       <c r="J408" s="11"/>
       <c r="W408" s="11"/>
     </row>
-    <row r="409" spans="7:23">
+    <row r="409" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G409" s="11"/>
       <c r="J409" s="11"/>
       <c r="W409" s="11"/>
     </row>
-    <row r="410" spans="7:23">
+    <row r="410" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G410" s="11"/>
       <c r="J410" s="11"/>
       <c r="W410" s="11"/>
     </row>
-    <row r="411" spans="7:23">
+    <row r="411" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G411" s="11"/>
       <c r="J411" s="11"/>
       <c r="W411" s="11"/>
     </row>
-    <row r="412" spans="7:23">
+    <row r="412" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G412" s="11"/>
       <c r="J412" s="11"/>
       <c r="W412" s="11"/>
     </row>
-    <row r="413" spans="7:23">
+    <row r="413" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G413" s="11"/>
       <c r="J413" s="11"/>
       <c r="W413" s="11"/>
     </row>
-    <row r="414" spans="7:23">
+    <row r="414" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G414" s="11"/>
       <c r="J414" s="11"/>
       <c r="W414" s="11"/>
     </row>
-    <row r="415" spans="7:23">
+    <row r="415" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G415" s="11"/>
       <c r="J415" s="11"/>
       <c r="W415" s="11"/>
     </row>
-    <row r="416" spans="7:23">
+    <row r="416" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G416" s="11"/>
       <c r="J416" s="11"/>
       <c r="W416" s="11"/>
     </row>
-    <row r="417" spans="7:23">
+    <row r="417" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G417" s="11"/>
       <c r="J417" s="11"/>
       <c r="W417" s="11"/>
     </row>
-    <row r="418" spans="7:23">
+    <row r="418" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G418" s="11"/>
       <c r="J418" s="11"/>
       <c r="W418" s="11"/>
     </row>
-    <row r="419" spans="7:23">
+    <row r="419" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G419" s="11"/>
       <c r="J419" s="11"/>
       <c r="W419" s="11"/>
     </row>
-    <row r="420" spans="7:23">
+    <row r="420" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G420" s="11"/>
       <c r="J420" s="11"/>
       <c r="W420" s="11"/>
     </row>
-    <row r="421" spans="7:23">
+    <row r="421" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G421" s="11"/>
       <c r="J421" s="11"/>
       <c r="W421" s="11"/>
     </row>
-    <row r="422" spans="7:23">
+    <row r="422" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G422" s="11"/>
       <c r="J422" s="11"/>
       <c r="W422" s="11"/>
     </row>
-    <row r="423" spans="7:23">
+    <row r="423" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G423" s="11"/>
       <c r="J423" s="11"/>
       <c r="W423" s="11"/>
     </row>
-    <row r="424" spans="7:23">
+    <row r="424" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G424" s="11"/>
       <c r="J424" s="11"/>
       <c r="W424" s="11"/>
     </row>
-    <row r="425" spans="7:23">
+    <row r="425" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G425" s="11"/>
       <c r="J425" s="11"/>
       <c r="W425" s="11"/>
     </row>
-    <row r="426" spans="7:23">
+    <row r="426" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G426" s="11"/>
       <c r="J426" s="11"/>
       <c r="W426" s="11"/>
     </row>
-    <row r="427" spans="7:23">
+    <row r="427" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G427" s="11"/>
       <c r="J427" s="11"/>
       <c r="W427" s="11"/>
     </row>
-    <row r="428" spans="7:23">
+    <row r="428" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G428" s="11"/>
       <c r="J428" s="11"/>
       <c r="W428" s="11"/>
     </row>
-    <row r="429" spans="7:23">
+    <row r="429" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G429" s="11"/>
       <c r="J429" s="11"/>
       <c r="W429" s="11"/>
     </row>
-    <row r="430" spans="7:23">
+    <row r="430" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G430" s="11"/>
       <c r="J430" s="11"/>
       <c r="W430" s="11"/>
     </row>
-    <row r="431" spans="7:23">
+    <row r="431" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G431" s="11"/>
       <c r="J431" s="11"/>
       <c r="W431" s="11"/>
     </row>
-    <row r="432" spans="7:23">
+    <row r="432" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G432" s="11"/>
       <c r="J432" s="11"/>
       <c r="W432" s="11"/>
     </row>
-    <row r="433" spans="7:23">
+    <row r="433" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G433" s="11"/>
       <c r="J433" s="11"/>
       <c r="W433" s="11"/>
     </row>
-    <row r="434" spans="7:23">
+    <row r="434" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G434" s="11"/>
       <c r="J434" s="11"/>
       <c r="W434" s="11"/>
     </row>
-    <row r="435" spans="7:23">
+    <row r="435" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G435" s="11"/>
       <c r="J435" s="11"/>
       <c r="W435" s="11"/>
     </row>
-    <row r="436" spans="7:23">
+    <row r="436" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G436" s="11"/>
       <c r="J436" s="11"/>
       <c r="W436" s="11"/>
     </row>
-    <row r="437" spans="7:23">
+    <row r="437" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G437" s="11"/>
       <c r="J437" s="11"/>
       <c r="W437" s="11"/>
     </row>
-    <row r="438" spans="7:23">
+    <row r="438" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G438" s="11"/>
       <c r="J438" s="11"/>
       <c r="W438" s="11"/>
     </row>
-    <row r="439" spans="7:23">
+    <row r="439" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G439" s="11"/>
       <c r="J439" s="11"/>
       <c r="W439" s="11"/>
     </row>
-    <row r="440" spans="7:23">
+    <row r="440" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G440" s="11"/>
       <c r="J440" s="11"/>
       <c r="W440" s="11"/>
     </row>
-    <row r="441" spans="7:23">
+    <row r="441" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G441" s="11"/>
       <c r="J441" s="11"/>
       <c r="W441" s="11"/>
     </row>
-    <row r="442" spans="7:23">
+    <row r="442" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G442" s="11"/>
       <c r="J442" s="11"/>
       <c r="W442" s="11"/>
     </row>
-    <row r="443" spans="7:23">
+    <row r="443" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G443" s="11"/>
       <c r="J443" s="11"/>
       <c r="W443" s="11"/>
     </row>
-    <row r="444" spans="7:23">
+    <row r="444" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G444" s="11"/>
       <c r="J444" s="11"/>
       <c r="W444" s="11"/>
     </row>
-    <row r="445" spans="7:23">
+    <row r="445" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G445" s="11"/>
       <c r="J445" s="11"/>
       <c r="W445" s="11"/>
     </row>
-    <row r="446" spans="7:23">
+    <row r="446" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G446" s="11"/>
       <c r="J446" s="11"/>
       <c r="W446" s="11"/>
     </row>
-    <row r="447" spans="7:23">
+    <row r="447" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G447" s="11"/>
       <c r="J447" s="11"/>
       <c r="W447" s="11"/>
     </row>
-    <row r="448" spans="7:23">
+    <row r="448" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G448" s="11"/>
       <c r="J448" s="11"/>
       <c r="W448" s="11"/>
     </row>
-    <row r="449" spans="7:23">
+    <row r="449" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G449" s="11"/>
       <c r="J449" s="11"/>
       <c r="W449" s="11"/>
     </row>
-    <row r="450" spans="7:23">
+    <row r="450" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G450" s="11"/>
       <c r="J450" s="11"/>
       <c r="W450" s="11"/>
     </row>
-    <row r="451" spans="7:23">
+    <row r="451" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G451" s="11"/>
       <c r="J451" s="11"/>
       <c r="W451" s="11"/>
     </row>
-    <row r="452" spans="7:23">
+    <row r="452" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G452" s="11"/>
       <c r="J452" s="11"/>
       <c r="W452" s="11"/>
     </row>
-    <row r="453" spans="7:23">
+    <row r="453" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G453" s="11"/>
       <c r="J453" s="11"/>
       <c r="W453" s="11"/>
     </row>
-    <row r="454" spans="7:23">
+    <row r="454" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G454" s="11"/>
       <c r="J454" s="11"/>
       <c r="W454" s="11"/>
     </row>
-    <row r="455" spans="7:23">
+    <row r="455" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G455" s="11"/>
       <c r="J455" s="11"/>
       <c r="W455" s="11"/>
     </row>
-    <row r="456" spans="7:23">
+    <row r="456" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G456" s="11"/>
       <c r="J456" s="11"/>
       <c r="W456" s="11"/>
     </row>
-    <row r="457" spans="7:23">
+    <row r="457" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G457" s="11"/>
       <c r="J457" s="11"/>
       <c r="W457" s="11"/>
     </row>
-    <row r="458" spans="7:23">
+    <row r="458" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G458" s="11"/>
       <c r="J458" s="11"/>
       <c r="W458" s="11"/>
     </row>
-    <row r="459" spans="7:23">
+    <row r="459" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G459" s="11"/>
       <c r="J459" s="11"/>
       <c r="W459" s="11"/>
     </row>
-    <row r="460" spans="7:23">
+    <row r="460" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G460" s="11"/>
       <c r="J460" s="11"/>
       <c r="W460" s="11"/>
     </row>
-    <row r="461" spans="7:23">
+    <row r="461" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G461" s="11"/>
       <c r="J461" s="11"/>
       <c r="W461" s="11"/>
     </row>
-    <row r="462" spans="7:23">
+    <row r="462" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G462" s="11"/>
       <c r="J462" s="11"/>
       <c r="W462" s="11"/>
     </row>
-    <row r="463" spans="7:23">
+    <row r="463" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G463" s="11"/>
       <c r="J463" s="11"/>
       <c r="W463" s="11"/>
     </row>
-    <row r="464" spans="7:23">
+    <row r="464" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G464" s="11"/>
       <c r="J464" s="11"/>
       <c r="W464" s="11"/>
     </row>
-    <row r="465" spans="7:23">
+    <row r="465" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G465" s="11"/>
       <c r="J465" s="11"/>
       <c r="W465" s="11"/>
     </row>
-    <row r="466" spans="7:23">
+    <row r="466" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G466" s="11"/>
       <c r="J466" s="11"/>
       <c r="W466" s="11"/>
     </row>
-    <row r="467" spans="7:23">
+    <row r="467" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G467" s="11"/>
       <c r="J467" s="11"/>
       <c r="W467" s="11"/>
     </row>
-    <row r="468" spans="7:23">
+    <row r="468" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G468" s="11"/>
       <c r="J468" s="11"/>
       <c r="W468" s="11"/>
     </row>
-    <row r="469" spans="7:23">
+    <row r="469" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G469" s="11"/>
       <c r="J469" s="11"/>
       <c r="W469" s="11"/>
     </row>
-    <row r="470" spans="7:23">
+    <row r="470" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G470" s="11"/>
       <c r="J470" s="11"/>
       <c r="W470" s="11"/>
     </row>
-    <row r="471" spans="7:23">
+    <row r="471" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G471" s="11"/>
       <c r="J471" s="11"/>
       <c r="W471" s="11"/>
     </row>
-    <row r="472" spans="7:23">
+    <row r="472" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G472" s="11"/>
       <c r="J472" s="11"/>
       <c r="W472" s="11"/>
     </row>
-    <row r="473" spans="7:23">
+    <row r="473" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G473" s="11"/>
       <c r="J473" s="11"/>
       <c r="W473" s="11"/>
     </row>
-    <row r="474" spans="7:23">
+    <row r="474" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G474" s="11"/>
       <c r="J474" s="11"/>
       <c r="W474" s="11"/>
     </row>
-    <row r="475" spans="7:23">
+    <row r="475" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G475" s="11"/>
       <c r="J475" s="11"/>
       <c r="W475" s="11"/>
     </row>
-    <row r="476" spans="7:23">
+    <row r="476" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G476" s="11"/>
       <c r="J476" s="11"/>
       <c r="W476" s="11"/>
     </row>
-    <row r="477" spans="7:23">
+    <row r="477" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G477" s="11"/>
       <c r="J477" s="11"/>
       <c r="W477" s="11"/>
     </row>
-    <row r="478" spans="7:23">
+    <row r="478" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G478" s="11"/>
       <c r="J478" s="11"/>
       <c r="W478" s="11"/>
     </row>
-    <row r="479" spans="7:23">
+    <row r="479" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G479" s="11"/>
       <c r="J479" s="11"/>
       <c r="W479" s="11"/>
     </row>
-    <row r="480" spans="7:23">
+    <row r="480" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G480" s="11"/>
       <c r="J480" s="11"/>
       <c r="W480" s="11"/>
     </row>
-    <row r="481" spans="7:23">
+    <row r="481" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G481" s="11"/>
       <c r="J481" s="11"/>
       <c r="W481" s="11"/>
     </row>
-    <row r="482" spans="7:23">
+    <row r="482" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G482" s="11"/>
       <c r="J482" s="11"/>
       <c r="W482" s="11"/>
     </row>
-    <row r="483" spans="7:23">
+    <row r="483" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G483" s="11"/>
       <c r="J483" s="11"/>
       <c r="W483" s="11"/>
     </row>
-    <row r="484" spans="7:23">
+    <row r="484" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G484" s="11"/>
       <c r="J484" s="11"/>
       <c r="W484" s="11"/>
     </row>
-    <row r="485" spans="7:23">
+    <row r="485" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G485" s="11"/>
       <c r="J485" s="11"/>
       <c r="W485" s="11"/>
     </row>
-    <row r="486" spans="7:23">
+    <row r="486" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G486" s="11"/>
       <c r="J486" s="11"/>
       <c r="W486" s="11"/>
     </row>
-    <row r="487" spans="7:23">
+    <row r="487" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G487" s="11"/>
       <c r="J487" s="11"/>
       <c r="W487" s="11"/>
     </row>
-    <row r="488" spans="7:23">
+    <row r="488" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G488" s="11"/>
       <c r="J488" s="11"/>
       <c r="W488" s="11"/>
     </row>
-    <row r="489" spans="7:23">
+    <row r="489" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G489" s="11"/>
       <c r="J489" s="11"/>
       <c r="W489" s="11"/>
     </row>
-    <row r="490" spans="7:23">
+    <row r="490" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G490" s="11"/>
       <c r="J490" s="11"/>
       <c r="W490" s="11"/>
     </row>
-    <row r="491" spans="7:23">
+    <row r="491" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G491" s="11"/>
       <c r="J491" s="11"/>
       <c r="W491" s="11"/>
     </row>
-    <row r="492" spans="7:23">
+    <row r="492" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G492" s="11"/>
       <c r="J492" s="11"/>
       <c r="W492" s="11"/>
     </row>
-    <row r="493" spans="7:23">
+    <row r="493" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G493" s="11"/>
       <c r="J493" s="11"/>
       <c r="W493" s="11"/>
     </row>
-    <row r="494" spans="7:23">
+    <row r="494" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G494" s="11"/>
       <c r="J494" s="11"/>
       <c r="W494" s="11"/>
     </row>
-    <row r="495" spans="7:23">
+    <row r="495" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G495" s="11"/>
       <c r="J495" s="11"/>
       <c r="W495" s="11"/>
     </row>
-    <row r="496" spans="7:23">
+    <row r="496" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G496" s="11"/>
       <c r="J496" s="11"/>
       <c r="W496" s="11"/>
     </row>
-    <row r="497" spans="7:23">
+    <row r="497" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G497" s="11"/>
       <c r="J497" s="11"/>
       <c r="W497" s="11"/>
     </row>
-    <row r="498" spans="7:23">
+    <row r="498" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G498" s="11"/>
       <c r="J498" s="11"/>
       <c r="W498" s="11"/>
     </row>
-    <row r="499" spans="7:23">
+    <row r="499" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G499" s="11"/>
       <c r="J499" s="11"/>
       <c r="W499" s="11"/>
     </row>
-    <row r="500" spans="7:23">
+    <row r="500" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G500" s="11"/>
       <c r="J500" s="11"/>
       <c r="W500" s="11"/>
     </row>
-    <row r="501" spans="7:23">
+    <row r="501" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G501" s="11"/>
       <c r="J501" s="11"/>
       <c r="W501" s="11"/>
     </row>
-    <row r="502" spans="7:23">
+    <row r="502" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G502" s="11"/>
       <c r="J502" s="11"/>
       <c r="W502" s="11"/>
     </row>
-    <row r="503" spans="7:23">
+    <row r="503" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G503" s="11"/>
       <c r="J503" s="11"/>
       <c r="W503" s="11"/>
     </row>
-    <row r="504" spans="7:23">
+    <row r="504" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G504" s="11"/>
       <c r="J504" s="11"/>
       <c r="W504" s="11"/>
     </row>
-    <row r="505" spans="7:23">
+    <row r="505" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G505" s="11"/>
       <c r="J505" s="11"/>
       <c r="W505" s="11"/>
     </row>
-    <row r="506" spans="7:23">
+    <row r="506" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G506" s="11"/>
       <c r="J506" s="11"/>
       <c r="W506" s="11"/>
     </row>
-    <row r="507" spans="7:23">
+    <row r="507" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G507" s="11"/>
       <c r="J507" s="11"/>
       <c r="W507" s="11"/>
     </row>
-    <row r="508" spans="7:23">
+    <row r="508" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G508" s="11"/>
       <c r="J508" s="11"/>
       <c r="W508" s="11"/>
     </row>
-    <row r="509" spans="7:23">
+    <row r="509" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G509" s="11"/>
       <c r="J509" s="11"/>
       <c r="W509" s="11"/>
     </row>
-    <row r="510" spans="7:23">
+    <row r="510" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G510" s="11"/>
       <c r="J510" s="11"/>
       <c r="W510" s="11"/>
     </row>
-    <row r="511" spans="7:23">
+    <row r="511" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G511" s="11"/>
       <c r="J511" s="11"/>
       <c r="W511" s="11"/>
     </row>
-    <row r="512" spans="7:23">
+    <row r="512" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G512" s="11"/>
       <c r="J512" s="11"/>
       <c r="W512" s="11"/>
     </row>
-    <row r="513" spans="7:23">
+    <row r="513" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G513" s="11"/>
       <c r="J513" s="11"/>
       <c r="W513" s="11"/>
     </row>
-    <row r="514" spans="7:23">
+    <row r="514" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G514" s="11"/>
       <c r="J514" s="11"/>
       <c r="W514" s="11"/>
     </row>
-    <row r="515" spans="7:23">
+    <row r="515" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G515" s="11"/>
       <c r="J515" s="11"/>
       <c r="W515" s="11"/>
     </row>
-    <row r="516" spans="7:23">
+    <row r="516" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G516" s="11"/>
       <c r="J516" s="11"/>
       <c r="W516" s="11"/>
     </row>
-    <row r="517" spans="7:23">
+    <row r="517" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G517" s="11"/>
       <c r="J517" s="11"/>
       <c r="W517" s="11"/>
     </row>
-    <row r="518" spans="7:23">
+    <row r="518" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G518" s="11"/>
       <c r="J518" s="11"/>
       <c r="W518" s="11"/>
     </row>
-    <row r="519" spans="7:23">
+    <row r="519" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G519" s="11"/>
       <c r="J519" s="11"/>
       <c r="W519" s="11"/>
     </row>
-    <row r="520" spans="7:23">
+    <row r="520" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G520" s="11"/>
       <c r="J520" s="11"/>
       <c r="W520" s="11"/>
     </row>
-    <row r="521" spans="7:23">
+    <row r="521" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G521" s="11"/>
       <c r="J521" s="11"/>
       <c r="W521" s="11"/>
     </row>
-    <row r="522" spans="7:23">
+    <row r="522" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G522" s="11"/>
       <c r="J522" s="11"/>
       <c r="W522" s="11"/>
     </row>
-    <row r="523" spans="7:23">
+    <row r="523" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G523" s="11"/>
       <c r="J523" s="11"/>
       <c r="W523" s="11"/>
     </row>
-    <row r="524" spans="7:23">
+    <row r="524" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G524" s="11"/>
       <c r="J524" s="11"/>
       <c r="W524" s="11"/>
     </row>
-    <row r="525" spans="7:23">
+    <row r="525" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G525" s="11"/>
       <c r="J525" s="11"/>
       <c r="W525" s="11"/>
     </row>
-    <row r="526" spans="7:23">
+    <row r="526" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G526" s="11"/>
       <c r="J526" s="11"/>
       <c r="W526" s="11"/>
     </row>
-    <row r="527" spans="7:23">
+    <row r="527" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G527" s="11"/>
       <c r="J527" s="11"/>
       <c r="W527" s="11"/>
     </row>
-    <row r="528" spans="7:23">
+    <row r="528" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G528" s="11"/>
       <c r="J528" s="11"/>
       <c r="W528" s="11"/>
     </row>
-    <row r="529" spans="7:23">
+    <row r="529" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G529" s="11"/>
       <c r="J529" s="11"/>
       <c r="W529" s="11"/>
     </row>
-    <row r="530" spans="7:23">
+    <row r="530" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G530" s="11"/>
       <c r="J530" s="11"/>
       <c r="W530" s="11"/>
     </row>
-    <row r="531" spans="7:23">
+    <row r="531" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G531" s="11"/>
       <c r="J531" s="11"/>
       <c r="W531" s="11"/>
     </row>
-    <row r="532" spans="7:23">
+    <row r="532" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G532" s="11"/>
       <c r="J532" s="11"/>
       <c r="W532" s="11"/>
     </row>
-    <row r="533" spans="7:23">
+    <row r="533" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G533" s="11"/>
       <c r="J533" s="11"/>
       <c r="W533" s="11"/>
     </row>
-    <row r="534" spans="7:23">
+    <row r="534" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G534" s="11"/>
       <c r="J534" s="11"/>
       <c r="W534" s="11"/>
     </row>
-    <row r="535" spans="7:23">
+    <row r="535" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G535" s="11"/>
       <c r="J535" s="11"/>
       <c r="W535" s="11"/>
     </row>
-    <row r="536" spans="7:23">
+    <row r="536" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G536" s="11"/>
       <c r="J536" s="11"/>
       <c r="W536" s="11"/>
     </row>
-    <row r="537" spans="7:23">
+    <row r="537" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G537" s="11"/>
       <c r="J537" s="11"/>
       <c r="W537" s="11"/>
     </row>
-    <row r="538" spans="7:23">
+    <row r="538" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G538" s="11"/>
       <c r="J538" s="11"/>
       <c r="W538" s="11"/>
     </row>
-    <row r="539" spans="7:23">
+    <row r="539" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G539" s="11"/>
       <c r="J539" s="11"/>
       <c r="W539" s="11"/>
     </row>
-    <row r="540" spans="7:23">
+    <row r="540" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G540" s="11"/>
       <c r="J540" s="11"/>
       <c r="W540" s="11"/>
     </row>
-    <row r="541" spans="7:23">
+    <row r="541" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G541" s="11"/>
       <c r="J541" s="11"/>
       <c r="W541" s="11"/>
     </row>
-    <row r="542" spans="7:23">
+    <row r="542" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G542" s="11"/>
       <c r="J542" s="11"/>
       <c r="W542" s="11"/>
     </row>
-    <row r="543" spans="7:23">
+    <row r="543" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G543" s="11"/>
       <c r="J543" s="11"/>
       <c r="W543" s="11"/>
     </row>
-    <row r="544" spans="7:23">
+    <row r="544" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G544" s="11"/>
       <c r="J544" s="11"/>
       <c r="W544" s="11"/>
     </row>
-    <row r="545" spans="7:23">
+    <row r="545" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G545" s="11"/>
       <c r="J545" s="11"/>
       <c r="W545" s="11"/>
     </row>
-    <row r="546" spans="7:23">
+    <row r="546" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G546" s="11"/>
       <c r="J546" s="11"/>
       <c r="W546" s="11"/>
     </row>
-    <row r="547" spans="7:23">
+    <row r="547" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G547" s="11"/>
       <c r="J547" s="11"/>
       <c r="W547" s="11"/>
     </row>
-    <row r="548" spans="7:23">
+    <row r="548" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G548" s="11"/>
       <c r="J548" s="11"/>
       <c r="W548" s="11"/>
     </row>
-    <row r="549" spans="7:23">
+    <row r="549" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G549" s="11"/>
       <c r="J549" s="11"/>
       <c r="W549" s="11"/>
     </row>
-    <row r="550" spans="7:23">
+    <row r="550" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G550" s="11"/>
       <c r="J550" s="11"/>
       <c r="W550" s="11"/>
     </row>
-    <row r="551" spans="7:23">
+    <row r="551" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G551" s="11"/>
       <c r="J551" s="11"/>
       <c r="W551" s="11"/>
     </row>
-    <row r="552" spans="7:23">
+    <row r="552" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G552" s="11"/>
       <c r="J552" s="11"/>
       <c r="W552" s="11"/>
     </row>
-    <row r="553" spans="7:23">
+    <row r="553" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G553" s="11"/>
       <c r="J553" s="11"/>
       <c r="W553" s="11"/>
     </row>
-    <row r="554" spans="7:23">
+    <row r="554" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G554" s="11"/>
       <c r="J554" s="11"/>
       <c r="W554" s="11"/>
     </row>
-    <row r="555" spans="7:23">
+    <row r="555" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G555" s="11"/>
       <c r="J555" s="11"/>
       <c r="W555" s="11"/>
     </row>
-    <row r="556" spans="7:23">
+    <row r="556" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G556" s="11"/>
       <c r="J556" s="11"/>
       <c r="W556" s="11"/>
     </row>
-    <row r="557" spans="7:23">
+    <row r="557" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G557" s="11"/>
       <c r="J557" s="11"/>
       <c r="W557" s="11"/>
     </row>
-    <row r="558" spans="7:23">
+    <row r="558" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G558" s="11"/>
       <c r="J558" s="11"/>
       <c r="W558" s="11"/>
     </row>
-    <row r="559" spans="7:23">
+    <row r="559" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G559" s="11"/>
       <c r="J559" s="11"/>
       <c r="W559" s="11"/>
     </row>
-    <row r="560" spans="7:23">
+    <row r="560" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G560" s="11"/>
       <c r="J560" s="11"/>
       <c r="W560" s="11"/>
     </row>
-    <row r="561" spans="7:23">
+    <row r="561" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G561" s="11"/>
       <c r="J561" s="11"/>
       <c r="W561" s="11"/>
     </row>
-    <row r="562" spans="7:23">
+    <row r="562" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G562" s="11"/>
       <c r="J562" s="11"/>
       <c r="W562" s="11"/>
     </row>
-    <row r="563" spans="7:23">
+    <row r="563" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G563" s="11"/>
       <c r="J563" s="11"/>
       <c r="W563" s="11"/>
     </row>
-    <row r="564" spans="7:23">
+    <row r="564" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G564" s="11"/>
       <c r="J564" s="11"/>
       <c r="W564" s="11"/>
     </row>
-    <row r="565" spans="7:23">
+    <row r="565" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G565" s="11"/>
       <c r="J565" s="11"/>
       <c r="W565" s="11"/>
     </row>
-    <row r="566" spans="7:23">
+    <row r="566" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G566" s="11"/>
       <c r="J566" s="11"/>
       <c r="W566" s="11"/>
     </row>
-    <row r="567" spans="7:23">
+    <row r="567" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G567" s="11"/>
       <c r="J567" s="11"/>
       <c r="W567" s="11"/>
     </row>
-    <row r="568" spans="7:23">
+    <row r="568" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G568" s="11"/>
       <c r="J568" s="11"/>
       <c r="W568" s="11"/>
     </row>
-    <row r="569" spans="7:23">
+    <row r="569" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G569" s="11"/>
       <c r="J569" s="11"/>
       <c r="W569" s="11"/>
     </row>
-    <row r="570" spans="7:23">
+    <row r="570" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G570" s="11"/>
       <c r="J570" s="11"/>
       <c r="W570" s="11"/>
     </row>
-    <row r="571" spans="7:23">
+    <row r="571" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G571" s="11"/>
       <c r="J571" s="11"/>
       <c r="W571" s="11"/>
     </row>
-    <row r="572" spans="7:23">
+    <row r="572" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G572" s="11"/>
       <c r="J572" s="11"/>
       <c r="W572" s="11"/>
     </row>
-    <row r="573" spans="7:23">
+    <row r="573" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G573" s="11"/>
       <c r="J573" s="11"/>
       <c r="W573" s="11"/>
     </row>
-    <row r="574" spans="7:23">
+    <row r="574" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G574" s="11"/>
       <c r="J574" s="11"/>
       <c r="W574" s="11"/>
     </row>
-    <row r="575" spans="7:23">
+    <row r="575" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G575" s="11"/>
       <c r="J575" s="11"/>
       <c r="W575" s="11"/>
     </row>
-    <row r="576" spans="7:23">
+    <row r="576" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G576" s="11"/>
       <c r="J576" s="11"/>
       <c r="W576" s="11"/>
     </row>
-    <row r="577" spans="7:23">
+    <row r="577" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G577" s="11"/>
       <c r="J577" s="11"/>
       <c r="W577" s="11"/>
     </row>
-    <row r="578" spans="7:23">
+    <row r="578" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G578" s="11"/>
       <c r="J578" s="11"/>
       <c r="W578" s="11"/>
     </row>
-    <row r="579" spans="7:23">
+    <row r="579" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G579" s="11"/>
       <c r="J579" s="11"/>
       <c r="W579" s="11"/>
     </row>
-    <row r="580" spans="7:23">
+    <row r="580" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G580" s="11"/>
       <c r="J580" s="11"/>
       <c r="W580" s="11"/>
     </row>
-    <row r="581" spans="7:23">
+    <row r="581" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G581" s="11"/>
       <c r="J581" s="11"/>
       <c r="W581" s="11"/>
     </row>
-    <row r="582" spans="7:23">
+    <row r="582" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G582" s="11"/>
       <c r="J582" s="11"/>
       <c r="W582" s="11"/>
     </row>
-    <row r="583" spans="7:23">
+    <row r="583" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G583" s="11"/>
       <c r="J583" s="11"/>
       <c r="W583" s="11"/>
     </row>
-    <row r="584" spans="7:23">
+    <row r="584" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G584" s="11"/>
       <c r="J584" s="11"/>
       <c r="W584" s="11"/>
     </row>
-    <row r="585" spans="7:23">
+    <row r="585" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G585" s="11"/>
       <c r="J585" s="11"/>
       <c r="W585" s="11"/>
     </row>
-    <row r="586" spans="7:23">
+    <row r="586" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G586" s="11"/>
       <c r="J586" s="11"/>
       <c r="W586" s="11"/>
     </row>
-    <row r="587" spans="7:23">
+    <row r="587" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G587" s="11"/>
       <c r="J587" s="11"/>
       <c r="W587" s="11"/>
     </row>
-    <row r="588" spans="7:23">
+    <row r="588" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G588" s="11"/>
       <c r="J588" s="11"/>
       <c r="W588" s="11"/>
     </row>
-    <row r="589" spans="7:23">
+    <row r="589" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G589" s="11"/>
       <c r="J589" s="11"/>
       <c r="W589" s="11"/>
     </row>
-    <row r="590" spans="7:23">
+    <row r="590" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G590" s="11"/>
       <c r="J590" s="11"/>
       <c r="W590" s="11"/>
     </row>
-    <row r="591" spans="7:23">
+    <row r="591" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G591" s="11"/>
       <c r="J591" s="11"/>
       <c r="W591" s="11"/>
     </row>
-    <row r="592" spans="7:23">
+    <row r="592" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G592" s="11"/>
       <c r="J592" s="11"/>
       <c r="W592" s="11"/>
     </row>
-    <row r="593" spans="7:23">
+    <row r="593" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G593" s="11"/>
       <c r="J593" s="11"/>
       <c r="W593" s="11"/>
     </row>
-    <row r="594" spans="7:23">
+    <row r="594" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G594" s="11"/>
       <c r="J594" s="11"/>
       <c r="W594" s="11"/>
     </row>
-    <row r="595" spans="7:23">
+    <row r="595" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G595" s="11"/>
       <c r="J595" s="11"/>
       <c r="W595" s="11"/>
     </row>
-    <row r="596" spans="7:23">
+    <row r="596" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G596" s="11"/>
       <c r="J596" s="11"/>
       <c r="W596" s="11"/>
     </row>
-    <row r="597" spans="7:23">
+    <row r="597" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G597" s="11"/>
       <c r="J597" s="11"/>
       <c r="W597" s="11"/>
     </row>
-    <row r="598" spans="7:23">
+    <row r="598" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G598" s="11"/>
       <c r="J598" s="11"/>
       <c r="W598" s="11"/>
     </row>
-    <row r="599" spans="7:23">
+    <row r="599" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G599" s="11"/>
       <c r="J599" s="11"/>
       <c r="W599" s="11"/>
     </row>
-    <row r="600" spans="7:23">
+    <row r="600" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G600" s="11"/>
       <c r="J600" s="11"/>
       <c r="W600" s="11"/>
     </row>
-    <row r="601" spans="7:23">
+    <row r="601" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G601" s="11"/>
       <c r="J601" s="11"/>
       <c r="W601" s="11"/>
     </row>
-    <row r="602" spans="7:23">
+    <row r="602" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G602" s="11"/>
       <c r="J602" s="11"/>
       <c r="W602" s="11"/>
     </row>
-    <row r="603" spans="7:23">
+    <row r="603" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G603" s="11"/>
       <c r="J603" s="11"/>
       <c r="W603" s="11"/>
     </row>
-    <row r="604" spans="7:23">
+    <row r="604" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G604" s="11"/>
       <c r="J604" s="11"/>
       <c r="W604" s="11"/>
     </row>
-    <row r="605" spans="7:23">
+    <row r="605" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G605" s="11"/>
       <c r="J605" s="11"/>
       <c r="W605" s="11"/>
     </row>
-    <row r="606" spans="7:23">
+    <row r="606" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G606" s="11"/>
       <c r="J606" s="11"/>
       <c r="W606" s="11"/>
     </row>
-    <row r="607" spans="7:23">
+    <row r="607" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G607" s="11"/>
       <c r="J607" s="11"/>
       <c r="W607" s="11"/>
     </row>
-    <row r="608" spans="7:23">
+    <row r="608" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G608" s="11"/>
       <c r="J608" s="11"/>
       <c r="W608" s="11"/>
     </row>
-    <row r="609" spans="7:23">
+    <row r="609" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G609" s="11"/>
       <c r="J609" s="11"/>
       <c r="W609" s="11"/>
     </row>
-    <row r="610" spans="7:23">
+    <row r="610" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G610" s="11"/>
       <c r="J610" s="11"/>
       <c r="W610" s="11"/>
     </row>
-    <row r="611" spans="7:23">
+    <row r="611" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G611" s="11"/>
       <c r="J611" s="11"/>
       <c r="W611" s="11"/>
     </row>
-    <row r="612" spans="7:23">
+    <row r="612" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G612" s="11"/>
       <c r="J612" s="11"/>
       <c r="W612" s="11"/>
     </row>
-    <row r="613" spans="7:23">
+    <row r="613" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G613" s="11"/>
       <c r="J613" s="11"/>
       <c r="W613" s="11"/>
     </row>
-    <row r="614" spans="7:23">
+    <row r="614" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G614" s="11"/>
       <c r="J614" s="11"/>
       <c r="W614" s="11"/>
     </row>
-    <row r="615" spans="7:23">
+    <row r="615" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G615" s="11"/>
       <c r="J615" s="11"/>
       <c r="W615" s="11"/>
     </row>
-    <row r="616" spans="7:23">
+    <row r="616" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G616" s="11"/>
       <c r="J616" s="11"/>
       <c r="W616" s="11"/>
     </row>
-    <row r="617" spans="7:23">
+    <row r="617" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G617" s="11"/>
       <c r="J617" s="11"/>
       <c r="W617" s="11"/>
     </row>
-    <row r="618" spans="7:23">
+    <row r="618" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G618" s="11"/>
       <c r="J618" s="11"/>
       <c r="W618" s="11"/>
     </row>
-    <row r="619" spans="7:23">
+    <row r="619" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G619" s="11"/>
       <c r="J619" s="11"/>
       <c r="W619" s="11"/>
     </row>
-    <row r="620" spans="7:23">
+    <row r="620" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G620" s="11"/>
       <c r="J620" s="11"/>
       <c r="W620" s="11"/>
     </row>
-    <row r="621" spans="7:23">
+    <row r="621" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G621" s="11"/>
       <c r="J621" s="11"/>
       <c r="W621" s="11"/>
     </row>
-    <row r="622" spans="7:23">
+    <row r="622" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G622" s="11"/>
       <c r="J622" s="11"/>
       <c r="W622" s="11"/>
     </row>
-    <row r="623" spans="7:23">
+    <row r="623" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G623" s="11"/>
       <c r="J623" s="11"/>
       <c r="W623" s="11"/>
     </row>
-    <row r="624" spans="7:23">
+    <row r="624" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G624" s="11"/>
       <c r="J624" s="11"/>
       <c r="W624" s="11"/>
     </row>
-    <row r="625" spans="7:23">
+    <row r="625" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G625" s="11"/>
       <c r="J625" s="11"/>
       <c r="W625" s="11"/>
     </row>
-    <row r="626" spans="7:23">
+    <row r="626" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G626" s="11"/>
       <c r="J626" s="11"/>
       <c r="W626" s="11"/>
     </row>
-    <row r="627" spans="7:23">
+    <row r="627" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G627" s="11"/>
       <c r="J627" s="11"/>
       <c r="W627" s="11"/>
     </row>
-    <row r="628" spans="7:23">
+    <row r="628" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G628" s="11"/>
       <c r="J628" s="11"/>
       <c r="W628" s="11"/>
     </row>
-    <row r="629" spans="7:23">
+    <row r="629" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G629" s="11"/>
       <c r="J629" s="11"/>
       <c r="W629" s="11"/>
     </row>
-    <row r="630" spans="7:23">
+    <row r="630" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G630" s="11"/>
       <c r="J630" s="11"/>
       <c r="W630" s="11"/>
     </row>
-    <row r="631" spans="7:23">
+    <row r="631" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G631" s="11"/>
       <c r="J631" s="11"/>
       <c r="W631" s="11"/>
     </row>
-    <row r="632" spans="7:23">
+    <row r="632" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G632" s="11"/>
       <c r="J632" s="11"/>
       <c r="W632" s="11"/>
     </row>
-    <row r="633" spans="7:23">
+    <row r="633" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G633" s="11"/>
       <c r="J633" s="11"/>
       <c r="W633" s="11"/>
     </row>
-    <row r="634" spans="7:23">
+    <row r="634" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G634" s="11"/>
       <c r="J634" s="11"/>
       <c r="W634" s="11"/>
     </row>
-    <row r="635" spans="7:23">
+    <row r="635" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G635" s="11"/>
       <c r="J635" s="11"/>
       <c r="W635" s="11"/>
     </row>
-    <row r="636" spans="7:23">
+    <row r="636" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G636" s="11"/>
       <c r="J636" s="11"/>
       <c r="W636" s="11"/>
     </row>
-    <row r="637" spans="7:23">
+    <row r="637" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G637" s="11"/>
       <c r="J637" s="11"/>
       <c r="W637" s="11"/>
     </row>
-    <row r="638" spans="7:23">
+    <row r="638" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G638" s="11"/>
       <c r="J638" s="11"/>
       <c r="W638" s="11"/>
     </row>
-    <row r="639" spans="7:23">
+    <row r="639" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G639" s="11"/>
       <c r="J639" s="11"/>
       <c r="W639" s="11"/>
     </row>
-    <row r="640" spans="7:23">
+    <row r="640" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G640" s="11"/>
       <c r="J640" s="11"/>
       <c r="W640" s="11"/>
     </row>
-    <row r="641" spans="7:23">
+    <row r="641" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G641" s="11"/>
       <c r="J641" s="11"/>
       <c r="W641" s="11"/>
     </row>
-    <row r="642" spans="7:23">
+    <row r="642" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G642" s="11"/>
       <c r="J642" s="11"/>
       <c r="W642" s="11"/>
     </row>
-    <row r="643" spans="7:23">
+    <row r="643" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G643" s="11"/>
       <c r="J643" s="11"/>
       <c r="W643" s="11"/>
     </row>
-    <row r="644" spans="7:23">
+    <row r="644" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G644" s="11"/>
       <c r="J644" s="11"/>
       <c r="W644" s="11"/>
     </row>
-    <row r="645" spans="7:23">
+    <row r="645" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G645" s="11"/>
       <c r="J645" s="11"/>
       <c r="W645" s="11"/>
     </row>
-    <row r="646" spans="7:23">
+    <row r="646" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G646" s="11"/>
       <c r="J646" s="11"/>
       <c r="W646" s="11"/>
     </row>
-    <row r="647" spans="7:23">
+    <row r="647" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G647" s="11"/>
       <c r="J647" s="11"/>
       <c r="W647" s="11"/>
     </row>
-    <row r="648" spans="7:23">
+    <row r="648" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G648" s="11"/>
       <c r="J648" s="11"/>
       <c r="W648" s="11"/>
     </row>
-    <row r="649" spans="7:23">
+    <row r="649" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G649" s="11"/>
       <c r="J649" s="11"/>
       <c r="W649" s="11"/>
     </row>
-    <row r="650" spans="7:23">
+    <row r="650" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G650" s="11"/>
       <c r="J650" s="11"/>
       <c r="W650" s="11"/>
     </row>
-    <row r="651" spans="7:23">
+    <row r="651" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G651" s="11"/>
       <c r="J651" s="11"/>
       <c r="W651" s="11"/>
     </row>
-    <row r="652" spans="7:23">
+    <row r="652" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G652" s="11"/>
       <c r="J652" s="11"/>
       <c r="W652" s="11"/>
     </row>
-    <row r="653" spans="7:23">
+    <row r="653" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G653" s="11"/>
       <c r="J653" s="11"/>
       <c r="W653" s="11"/>
     </row>
-    <row r="654" spans="7:23">
+    <row r="654" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G654" s="11"/>
       <c r="J654" s="11"/>
       <c r="W654" s="11"/>
     </row>
-    <row r="655" spans="7:23">
+    <row r="655" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G655" s="11"/>
       <c r="J655" s="11"/>
       <c r="W655" s="11"/>
     </row>
-    <row r="656" spans="7:23">
+    <row r="656" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G656" s="11"/>
       <c r="J656" s="11"/>
       <c r="W656" s="11"/>
     </row>
-    <row r="657" spans="7:23">
+    <row r="657" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G657" s="11"/>
       <c r="J657" s="11"/>
       <c r="W657" s="11"/>
     </row>
-    <row r="658" spans="7:23">
+    <row r="658" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G658" s="11"/>
       <c r="J658" s="11"/>
       <c r="W658" s="11"/>
     </row>
-    <row r="659" spans="7:23">
+    <row r="659" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G659" s="11"/>
       <c r="J659" s="11"/>
       <c r="W659" s="11"/>
     </row>
-    <row r="660" spans="7:23">
+    <row r="660" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G660" s="11"/>
       <c r="J660" s="11"/>
       <c r="W660" s="11"/>
     </row>
-    <row r="661" spans="7:23">
+    <row r="661" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G661" s="11"/>
       <c r="J661" s="11"/>
       <c r="W661" s="11"/>
     </row>
-    <row r="662" spans="7:23">
+    <row r="662" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G662" s="11"/>
       <c r="J662" s="11"/>
       <c r="W662" s="11"/>
     </row>
-    <row r="663" spans="7:23">
+    <row r="663" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G663" s="11"/>
       <c r="J663" s="11"/>
       <c r="W663" s="11"/>
     </row>
-    <row r="664" spans="7:23">
+    <row r="664" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G664" s="11"/>
       <c r="J664" s="11"/>
       <c r="W664" s="11"/>
     </row>
-    <row r="665" spans="7:23">
+    <row r="665" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G665" s="11"/>
       <c r="J665" s="11"/>
       <c r="W665" s="11"/>
     </row>
-    <row r="666" spans="7:23">
+    <row r="666" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G666" s="11"/>
       <c r="J666" s="11"/>
       <c r="W666" s="11"/>
     </row>
-    <row r="667" spans="7:23">
+    <row r="667" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G667" s="11"/>
       <c r="J667" s="11"/>
       <c r="W667" s="11"/>
     </row>
-    <row r="668" spans="7:23">
+    <row r="668" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G668" s="11"/>
       <c r="J668" s="11"/>
       <c r="W668" s="11"/>
     </row>
-    <row r="669" spans="7:23">
+    <row r="669" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G669" s="11"/>
       <c r="J669" s="11"/>
       <c r="W669" s="11"/>
     </row>
-    <row r="670" spans="7:23">
+    <row r="670" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G670" s="11"/>
       <c r="J670" s="11"/>
       <c r="W670" s="11"/>
     </row>
-    <row r="671" spans="7:23">
+    <row r="671" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G671" s="11"/>
       <c r="J671" s="11"/>
       <c r="W671" s="11"/>
     </row>
-    <row r="672" spans="7:23">
+    <row r="672" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G672" s="11"/>
       <c r="J672" s="11"/>
       <c r="W672" s="11"/>
     </row>
-    <row r="673" spans="7:23">
+    <row r="673" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G673" s="11"/>
       <c r="J673" s="11"/>
       <c r="W673" s="11"/>
     </row>
-    <row r="674" spans="7:23">
+    <row r="674" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G674" s="11"/>
       <c r="J674" s="11"/>
       <c r="W674" s="11"/>
     </row>
-    <row r="675" spans="7:23">
+    <row r="675" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G675" s="11"/>
       <c r="J675" s="11"/>
       <c r="W675" s="11"/>
     </row>
-    <row r="676" spans="7:23">
+    <row r="676" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G676" s="11"/>
       <c r="J676" s="11"/>
       <c r="W676" s="11"/>
     </row>
-    <row r="677" spans="7:23">
+    <row r="677" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G677" s="11"/>
       <c r="J677" s="11"/>
       <c r="W677" s="11"/>
     </row>
-    <row r="678" spans="7:23">
+    <row r="678" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G678" s="11"/>
       <c r="J678" s="11"/>
       <c r="W678" s="11"/>
     </row>
-    <row r="679" spans="7:23">
+    <row r="679" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G679" s="11"/>
       <c r="J679" s="11"/>
       <c r="W679" s="11"/>
     </row>
-    <row r="680" spans="7:23">
+    <row r="680" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G680" s="11"/>
       <c r="J680" s="11"/>
       <c r="W680" s="11"/>
     </row>
-    <row r="681" spans="7:23">
+    <row r="681" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G681" s="11"/>
       <c r="J681" s="11"/>
       <c r="W681" s="11"/>
     </row>
-    <row r="682" spans="7:23">
+    <row r="682" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G682" s="11"/>
       <c r="J682" s="11"/>
       <c r="W682" s="11"/>
     </row>
-    <row r="683" spans="7:23">
+    <row r="683" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G683" s="11"/>
       <c r="J683" s="11"/>
       <c r="W683" s="11"/>
     </row>
-    <row r="684" spans="7:23">
+    <row r="684" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G684" s="11"/>
       <c r="J684" s="11"/>
       <c r="W684" s="11"/>
     </row>
-    <row r="685" spans="7:23">
+    <row r="685" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G685" s="11"/>
       <c r="J685" s="11"/>
       <c r="W685" s="11"/>
     </row>
-    <row r="686" spans="7:23">
+    <row r="686" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G686" s="11"/>
       <c r="J686" s="11"/>
       <c r="W686" s="11"/>
     </row>
-    <row r="687" spans="7:23">
+    <row r="687" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G687" s="11"/>
       <c r="J687" s="11"/>
       <c r="W687" s="11"/>
     </row>
-    <row r="688" spans="7:23">
+    <row r="688" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G688" s="11"/>
       <c r="J688" s="11"/>
       <c r="W688" s="11"/>
     </row>
-    <row r="689" spans="7:23">
+    <row r="689" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G689" s="11"/>
       <c r="J689" s="11"/>
       <c r="W689" s="11"/>
     </row>
-    <row r="690" spans="7:23">
+    <row r="690" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G690" s="11"/>
       <c r="J690" s="11"/>
       <c r="W690" s="11"/>
     </row>
-    <row r="691" spans="7:23">
+    <row r="691" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G691" s="11"/>
       <c r="J691" s="11"/>
       <c r="W691" s="11"/>
     </row>
-    <row r="692" spans="7:23">
+    <row r="692" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G692" s="11"/>
       <c r="J692" s="11"/>
       <c r="W692" s="11"/>
     </row>
-    <row r="693" spans="7:23">
+    <row r="693" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G693" s="11"/>
       <c r="J693" s="11"/>
       <c r="W693" s="11"/>
     </row>
-    <row r="694" spans="7:23">
+    <row r="694" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G694" s="11"/>
       <c r="J694" s="11"/>
       <c r="W694" s="11"/>
     </row>
-    <row r="695" spans="7:23">
+    <row r="695" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G695" s="11"/>
       <c r="J695" s="11"/>
       <c r="W695" s="11"/>
     </row>
-    <row r="696" spans="7:23">
+    <row r="696" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G696" s="11"/>
       <c r="J696" s="11"/>
       <c r="W696" s="11"/>
     </row>
-    <row r="697" spans="7:23">
+    <row r="697" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G697" s="11"/>
       <c r="J697" s="11"/>
       <c r="W697" s="11"/>
     </row>
-    <row r="698" spans="7:23">
+    <row r="698" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G698" s="11"/>
       <c r="J698" s="11"/>
       <c r="W698" s="11"/>
     </row>
-    <row r="699" spans="7:23">
+    <row r="699" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G699" s="11"/>
       <c r="J699" s="11"/>
       <c r="W699" s="11"/>
     </row>
-    <row r="700" spans="7:23">
+    <row r="700" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G700" s="11"/>
       <c r="J700" s="11"/>
       <c r="W700" s="11"/>
     </row>
-    <row r="701" spans="7:23">
+    <row r="701" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G701" s="11"/>
       <c r="J701" s="11"/>
       <c r="W701" s="11"/>
     </row>
-    <row r="702" spans="7:23">
+    <row r="702" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G702" s="11"/>
       <c r="J702" s="11"/>
       <c r="W702" s="11"/>
     </row>
-    <row r="703" spans="7:23">
+    <row r="703" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G703" s="11"/>
       <c r="J703" s="11"/>
       <c r="W703" s="11"/>
     </row>
-    <row r="704" spans="7:23">
+    <row r="704" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G704" s="11"/>
       <c r="J704" s="11"/>
       <c r="W704" s="11"/>
     </row>
-    <row r="705" spans="7:23">
+    <row r="705" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G705" s="11"/>
       <c r="J705" s="11"/>
       <c r="W705" s="11"/>
     </row>
-    <row r="706" spans="7:23">
+    <row r="706" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G706" s="11"/>
       <c r="J706" s="11"/>
       <c r="W706" s="11"/>
     </row>
-    <row r="707" spans="7:23">
+    <row r="707" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G707" s="11"/>
       <c r="J707" s="11"/>
       <c r="W707" s="11"/>
     </row>
-    <row r="708" spans="7:23">
+    <row r="708" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G708" s="11"/>
       <c r="J708" s="11"/>
       <c r="W708" s="11"/>
     </row>
-    <row r="709" spans="7:23">
+    <row r="709" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G709" s="11"/>
       <c r="J709" s="11"/>
       <c r="W709" s="11"/>
     </row>
-    <row r="710" spans="7:23">
+    <row r="710" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G710" s="11"/>
       <c r="J710" s="11"/>
       <c r="W710" s="11"/>
     </row>
-    <row r="711" spans="7:23">
+    <row r="711" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G711" s="11"/>
       <c r="J711" s="11"/>
       <c r="W711" s="11"/>
     </row>
-    <row r="712" spans="7:23">
+    <row r="712" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G712" s="11"/>
       <c r="J712" s="11"/>
       <c r="W712" s="11"/>
     </row>
-    <row r="713" spans="7:23">
+    <row r="713" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G713" s="11"/>
       <c r="J713" s="11"/>
       <c r="W713" s="11"/>
     </row>
-    <row r="714" spans="7:23">
+    <row r="714" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G714" s="11"/>
       <c r="J714" s="11"/>
       <c r="W714" s="11"/>
     </row>
-    <row r="715" spans="7:23">
+    <row r="715" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G715" s="11"/>
       <c r="J715" s="11"/>
       <c r="W715" s="11"/>
     </row>
-    <row r="716" spans="7:23">
+    <row r="716" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G716" s="11"/>
       <c r="J716" s="11"/>
       <c r="W716" s="11"/>
     </row>
-    <row r="717" spans="7:23">
+    <row r="717" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G717" s="11"/>
       <c r="J717" s="11"/>
       <c r="W717" s="11"/>
     </row>
-    <row r="718" spans="7:23">
+    <row r="718" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G718" s="11"/>
       <c r="J718" s="11"/>
       <c r="W718" s="11"/>
     </row>
-    <row r="719" spans="7:23">
+    <row r="719" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G719" s="11"/>
       <c r="J719" s="11"/>
       <c r="W719" s="11"/>
     </row>
-    <row r="720" spans="7:23">
+    <row r="720" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G720" s="11"/>
       <c r="J720" s="11"/>
       <c r="W720" s="11"/>
     </row>
-    <row r="721" spans="7:23">
+    <row r="721" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G721" s="11"/>
       <c r="J721" s="11"/>
       <c r="W721" s="11"/>
     </row>
-    <row r="722" spans="7:23">
+    <row r="722" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G722" s="11"/>
       <c r="J722" s="11"/>
       <c r="W722" s="11"/>
     </row>
-    <row r="723" spans="7:23">
+    <row r="723" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G723" s="11"/>
       <c r="J723" s="11"/>
       <c r="W723" s="11"/>
     </row>
-    <row r="724" spans="7:23">
+    <row r="724" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G724" s="11"/>
       <c r="J724" s="11"/>
       <c r="W724" s="11"/>
     </row>
-    <row r="725" spans="7:23">
+    <row r="725" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G725" s="11"/>
       <c r="J725" s="11"/>
       <c r="W725" s="11"/>
     </row>
-    <row r="726" spans="7:23">
+    <row r="726" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G726" s="11"/>
       <c r="J726" s="11"/>
       <c r="W726" s="11"/>
     </row>
-    <row r="727" spans="7:23">
+    <row r="727" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G727" s="11"/>
       <c r="J727" s="11"/>
       <c r="W727" s="11"/>
     </row>
-    <row r="728" spans="7:23">
+    <row r="728" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G728" s="11"/>
       <c r="J728" s="11"/>
       <c r="W728" s="11"/>
     </row>
-    <row r="729" spans="7:23">
+    <row r="729" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G729" s="11"/>
       <c r="J729" s="11"/>
       <c r="W729" s="11"/>
     </row>
-    <row r="730" spans="7:23">
+    <row r="730" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G730" s="11"/>
       <c r="J730" s="11"/>
       <c r="W730" s="11"/>
     </row>
-    <row r="731" spans="7:23">
+    <row r="731" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G731" s="11"/>
       <c r="J731" s="11"/>
       <c r="W731" s="11"/>
     </row>
-    <row r="732" spans="7:23">
+    <row r="732" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G732" s="11"/>
       <c r="J732" s="11"/>
       <c r="W732" s="11"/>
     </row>
-    <row r="733" spans="7:23">
+    <row r="733" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G733" s="11"/>
       <c r="J733" s="11"/>
       <c r="W733" s="11"/>
     </row>
-    <row r="734" spans="7:23">
+    <row r="734" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G734" s="11"/>
       <c r="J734" s="11"/>
       <c r="W734" s="11"/>
     </row>
-    <row r="735" spans="7:23">
+    <row r="735" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G735" s="11"/>
       <c r="J735" s="11"/>
       <c r="W735" s="11"/>
     </row>
-    <row r="736" spans="7:23">
+    <row r="736" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G736" s="11"/>
       <c r="J736" s="11"/>
       <c r="W736" s="11"/>
     </row>
-    <row r="737" spans="7:23">
+    <row r="737" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G737" s="11"/>
       <c r="J737" s="11"/>
       <c r="W737" s="11"/>
     </row>
-    <row r="738" spans="7:23">
+    <row r="738" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G738" s="11"/>
       <c r="J738" s="11"/>
       <c r="W738" s="11"/>
     </row>
-    <row r="739" spans="7:23">
+    <row r="739" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G739" s="11"/>
       <c r="J739" s="11"/>
       <c r="W739" s="11"/>
     </row>
-    <row r="740" spans="7:23">
+    <row r="740" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G740" s="11"/>
       <c r="J740" s="11"/>
       <c r="W740" s="11"/>
     </row>
-    <row r="741" spans="7:23">
+    <row r="741" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G741" s="11"/>
       <c r="J741" s="11"/>
       <c r="W741" s="11"/>
     </row>
-    <row r="742" spans="7:23">
+    <row r="742" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G742" s="11"/>
       <c r="J742" s="11"/>
       <c r="W742" s="11"/>
     </row>
-    <row r="743" spans="7:23">
+    <row r="743" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G743" s="11"/>
       <c r="J743" s="11"/>
       <c r="W743" s="11"/>
     </row>
-    <row r="744" spans="7:23">
+    <row r="744" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G744" s="11"/>
       <c r="J744" s="11"/>
       <c r="W744" s="11"/>
     </row>
-    <row r="745" spans="7:23">
+    <row r="745" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G745" s="11"/>
       <c r="J745" s="11"/>
       <c r="W745" s="11"/>
     </row>
-    <row r="746" spans="7:23">
+    <row r="746" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G746" s="11"/>
       <c r="J746" s="11"/>
       <c r="W746" s="11"/>
     </row>
-    <row r="747" spans="7:23">
+    <row r="747" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G747" s="11"/>
       <c r="J747" s="11"/>
       <c r="W747" s="11"/>
     </row>
-    <row r="748" spans="7:23">
+    <row r="748" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G748" s="11"/>
       <c r="J748" s="11"/>
       <c r="W748" s="11"/>
     </row>
-    <row r="749" spans="7:23">
+    <row r="749" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G749" s="11"/>
       <c r="J749" s="11"/>
       <c r="W749" s="11"/>
     </row>
-    <row r="750" spans="7:23">
+    <row r="750" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G750" s="11"/>
       <c r="J750" s="11"/>
       <c r="W750" s="11"/>
     </row>
-    <row r="751" spans="7:23">
+    <row r="751" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G751" s="11"/>
       <c r="J751" s="11"/>
       <c r="W751" s="11"/>
     </row>
-    <row r="752" spans="7:23">
+    <row r="752" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G752" s="11"/>
       <c r="J752" s="11"/>
       <c r="W752" s="11"/>
     </row>
-    <row r="753" spans="7:23">
+    <row r="753" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G753" s="11"/>
       <c r="J753" s="11"/>
       <c r="W753" s="11"/>
     </row>
-    <row r="754" spans="7:23">
+    <row r="754" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G754" s="11"/>
       <c r="J754" s="11"/>
       <c r="W754" s="11"/>
     </row>
-    <row r="755" spans="7:23">
+    <row r="755" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G755" s="11"/>
       <c r="J755" s="11"/>
       <c r="W755" s="11"/>
     </row>
-    <row r="756" spans="7:23">
+    <row r="756" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G756" s="11"/>
       <c r="J756" s="11"/>
       <c r="W756" s="11"/>
     </row>
-    <row r="757" spans="7:23">
+    <row r="757" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G757" s="11"/>
       <c r="J757" s="11"/>
       <c r="W757" s="11"/>
     </row>
-    <row r="758" spans="7:23">
+    <row r="758" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G758" s="11"/>
       <c r="J758" s="11"/>
       <c r="W758" s="11"/>
     </row>
-    <row r="759" spans="7:23">
+    <row r="759" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G759" s="11"/>
       <c r="J759" s="11"/>
       <c r="W759" s="11"/>
     </row>
-    <row r="760" spans="7:23">
+    <row r="760" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G760" s="11"/>
       <c r="J760" s="11"/>
       <c r="W760" s="11"/>
     </row>
-    <row r="761" spans="7:23">
+    <row r="761" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G761" s="11"/>
       <c r="J761" s="11"/>
       <c r="W761" s="11"/>
     </row>
-    <row r="762" spans="7:23">
+    <row r="762" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G762" s="11"/>
       <c r="J762" s="11"/>
       <c r="W762" s="11"/>
     </row>
-    <row r="763" spans="7:23">
+    <row r="763" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G763" s="11"/>
       <c r="J763" s="11"/>
       <c r="W763" s="11"/>
     </row>
-    <row r="764" spans="7:23">
+    <row r="764" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G764" s="11"/>
       <c r="J764" s="11"/>
       <c r="W764" s="11"/>
     </row>
-    <row r="765" spans="7:23">
+    <row r="765" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G765" s="11"/>
       <c r="J765" s="11"/>
       <c r="W765" s="11"/>
     </row>
-    <row r="766" spans="7:23">
+    <row r="766" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G766" s="11"/>
       <c r="J766" s="11"/>
       <c r="W766" s="11"/>
     </row>
-    <row r="767" spans="7:23">
+    <row r="767" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G767" s="11"/>
       <c r="J767" s="11"/>
       <c r="W767" s="11"/>
     </row>
-    <row r="768" spans="7:23">
+    <row r="768" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G768" s="11"/>
       <c r="J768" s="11"/>
       <c r="W768" s="11"/>
     </row>
-    <row r="769" spans="7:23">
+    <row r="769" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G769" s="11"/>
       <c r="J769" s="11"/>
       <c r="W769" s="11"/>
     </row>
-    <row r="770" spans="7:23">
+    <row r="770" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G770" s="11"/>
       <c r="J770" s="11"/>
       <c r="W770" s="11"/>
     </row>
-    <row r="771" spans="7:23">
+    <row r="771" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G771" s="11"/>
       <c r="J771" s="11"/>
       <c r="W771" s="11"/>
     </row>
-    <row r="772" spans="7:23">
+    <row r="772" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G772" s="11"/>
       <c r="J772" s="11"/>
       <c r="W772" s="11"/>
     </row>
-    <row r="773" spans="7:23">
+    <row r="773" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G773" s="11"/>
       <c r="J773" s="11"/>
       <c r="W773" s="11"/>
     </row>
-    <row r="774" spans="7:23">
+    <row r="774" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G774" s="11"/>
       <c r="J774" s="11"/>
       <c r="W774" s="11"/>
     </row>
-    <row r="775" spans="7:23">
+    <row r="775" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G775" s="11"/>
       <c r="J775" s="11"/>
       <c r="W775" s="11"/>
     </row>
-    <row r="776" spans="7:23">
+    <row r="776" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G776" s="11"/>
       <c r="J776" s="11"/>
       <c r="W776" s="11"/>
     </row>
-    <row r="777" spans="7:23">
+    <row r="777" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G777" s="11"/>
       <c r="J777" s="11"/>
       <c r="W777" s="11"/>
     </row>
-    <row r="778" spans="7:23">
+    <row r="778" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G778" s="11"/>
       <c r="J778" s="11"/>
       <c r="W778" s="11"/>
     </row>
-    <row r="779" spans="7:23">
+    <row r="779" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G779" s="11"/>
       <c r="J779" s="11"/>
       <c r="W779" s="11"/>
     </row>
-    <row r="780" spans="7:23">
+    <row r="780" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G780" s="11"/>
       <c r="J780" s="11"/>
       <c r="W780" s="11"/>
     </row>
-    <row r="781" spans="7:23">
+    <row r="781" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G781" s="11"/>
       <c r="J781" s="11"/>
       <c r="W781" s="11"/>
     </row>
-    <row r="782" spans="7:23">
+    <row r="782" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G782" s="11"/>
       <c r="J782" s="11"/>
       <c r="W782" s="11"/>
     </row>
-    <row r="783" spans="7:23">
+    <row r="783" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G783" s="11"/>
       <c r="J783" s="11"/>
       <c r="W783" s="11"/>
     </row>
-    <row r="784" spans="7:23">
+    <row r="784" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G784" s="11"/>
       <c r="J784" s="11"/>
       <c r="W784" s="11"/>
     </row>
-    <row r="785" spans="7:23">
+    <row r="785" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G785" s="11"/>
       <c r="J785" s="11"/>
       <c r="W785" s="11"/>
     </row>
-    <row r="786" spans="7:23">
+    <row r="786" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G786" s="11"/>
       <c r="J786" s="11"/>
       <c r="W786" s="11"/>
     </row>
-    <row r="787" spans="7:23">
+    <row r="787" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G787" s="11"/>
       <c r="J787" s="11"/>
       <c r="W787" s="11"/>
     </row>
-    <row r="788" spans="7:23">
+    <row r="788" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G788" s="11"/>
       <c r="J788" s="11"/>
       <c r="W788" s="11"/>
     </row>
-    <row r="789" spans="7:23">
+    <row r="789" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G789" s="11"/>
       <c r="J789" s="11"/>
       <c r="W789" s="11"/>
     </row>
-    <row r="790" spans="7:23">
+    <row r="790" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G790" s="11"/>
       <c r="J790" s="11"/>
       <c r="W790" s="11"/>
     </row>
-    <row r="791" spans="7:23">
+    <row r="791" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G791" s="11"/>
       <c r="J791" s="11"/>
       <c r="W791" s="11"/>
     </row>
-    <row r="792" spans="7:23">
+    <row r="792" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G792" s="11"/>
       <c r="J792" s="11"/>
       <c r="W792" s="11"/>
     </row>
-    <row r="793" spans="7:23">
+    <row r="793" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G793" s="11"/>
       <c r="J793" s="11"/>
       <c r="W793" s="11"/>
     </row>
-    <row r="794" spans="7:23">
+    <row r="794" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G794" s="11"/>
       <c r="J794" s="11"/>
       <c r="W794" s="11"/>
     </row>
-    <row r="795" spans="7:23">
+    <row r="795" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G795" s="11"/>
       <c r="J795" s="11"/>
       <c r="W795" s="11"/>
     </row>
-    <row r="796" spans="7:23">
+    <row r="796" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G796" s="11"/>
       <c r="J796" s="11"/>
       <c r="W796" s="11"/>
     </row>
-    <row r="797" spans="7:23">
+    <row r="797" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G797" s="11"/>
       <c r="J797" s="11"/>
       <c r="W797" s="11"/>
     </row>
-    <row r="798" spans="7:23">
+    <row r="798" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G798" s="11"/>
       <c r="J798" s="11"/>
       <c r="W798" s="11"/>
     </row>
-    <row r="799" spans="7:23">
+    <row r="799" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G799" s="11"/>
       <c r="J799" s="11"/>
       <c r="W799" s="11"/>
     </row>
-    <row r="800" spans="7:23">
+    <row r="800" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G800" s="11"/>
       <c r="J800" s="11"/>
       <c r="W800" s="11"/>
     </row>
-    <row r="801" spans="7:23">
+    <row r="801" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G801" s="11"/>
       <c r="J801" s="11"/>
       <c r="W801" s="11"/>
     </row>
-    <row r="802" spans="7:23">
+    <row r="802" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G802" s="11"/>
       <c r="J802" s="11"/>
       <c r="W802" s="11"/>
     </row>
-    <row r="803" spans="7:23">
+    <row r="803" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G803" s="11"/>
       <c r="J803" s="11"/>
       <c r="W803" s="11"/>
     </row>
-    <row r="804" spans="7:23">
+    <row r="804" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G804" s="11"/>
       <c r="J804" s="11"/>
       <c r="W804" s="11"/>
     </row>
-    <row r="805" spans="7:23">
+    <row r="805" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G805" s="11"/>
       <c r="J805" s="11"/>
       <c r="W805" s="11"/>
     </row>
-    <row r="806" spans="7:23">
+    <row r="806" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G806" s="11"/>
       <c r="J806" s="11"/>
       <c r="W806" s="11"/>
     </row>
-    <row r="807" spans="7:23">
+    <row r="807" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G807" s="11"/>
       <c r="J807" s="11"/>
       <c r="W807" s="11"/>
     </row>
-    <row r="808" spans="7:23">
+    <row r="808" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G808" s="11"/>
       <c r="J808" s="11"/>
       <c r="W808" s="11"/>
     </row>
-    <row r="809" spans="7:23">
+    <row r="809" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G809" s="11"/>
       <c r="J809" s="11"/>
       <c r="W809" s="11"/>
     </row>
-    <row r="810" spans="7:23">
+    <row r="810" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G810" s="11"/>
       <c r="J810" s="11"/>
       <c r="W810" s="11"/>
     </row>
-    <row r="811" spans="7:23">
+    <row r="811" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G811" s="11"/>
       <c r="J811" s="11"/>
       <c r="W811" s="11"/>
     </row>
-    <row r="812" spans="7:23">
+    <row r="812" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G812" s="11"/>
       <c r="J812" s="11"/>
       <c r="W812" s="11"/>
     </row>
-    <row r="813" spans="7:23">
+    <row r="813" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G813" s="11"/>
       <c r="J813" s="11"/>
       <c r="W813" s="11"/>
     </row>
-    <row r="814" spans="7:23">
+    <row r="814" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G814" s="11"/>
       <c r="J814" s="11"/>
       <c r="W814" s="11"/>
     </row>
-    <row r="815" spans="7:23">
+    <row r="815" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G815" s="11"/>
       <c r="J815" s="11"/>
       <c r="W815" s="11"/>
     </row>
-    <row r="816" spans="7:23">
+    <row r="816" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G816" s="11"/>
       <c r="J816" s="11"/>
       <c r="W816" s="11"/>
     </row>
-    <row r="817" spans="7:23">
+    <row r="817" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G817" s="11"/>
       <c r="J817" s="11"/>
       <c r="W817" s="11"/>
     </row>
-    <row r="818" spans="7:23">
+    <row r="818" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G818" s="11"/>
       <c r="J818" s="11"/>
       <c r="W818" s="11"/>
     </row>
-    <row r="819" spans="7:23">
+    <row r="819" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G819" s="11"/>
       <c r="J819" s="11"/>
       <c r="W819" s="11"/>
     </row>
-    <row r="820" spans="7:23">
+    <row r="820" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G820" s="11"/>
       <c r="J820" s="11"/>
       <c r="W820" s="11"/>
     </row>
-    <row r="821" spans="7:23">
+    <row r="821" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G821" s="11"/>
       <c r="J821" s="11"/>
       <c r="W821" s="11"/>
     </row>
-    <row r="822" spans="7:23">
+    <row r="822" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G822" s="11"/>
       <c r="J822" s="11"/>
       <c r="W822" s="11"/>
     </row>
-    <row r="823" spans="7:23">
+    <row r="823" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G823" s="11"/>
       <c r="J823" s="11"/>
       <c r="W823" s="11"/>
     </row>
-    <row r="824" spans="7:23">
+    <row r="824" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G824" s="11"/>
       <c r="J824" s="11"/>
       <c r="W824" s="11"/>
     </row>
-    <row r="825" spans="7:23">
+    <row r="825" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G825" s="11"/>
       <c r="J825" s="11"/>
       <c r="W825" s="11"/>
     </row>
-    <row r="826" spans="7:23">
+    <row r="826" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G826" s="11"/>
       <c r="J826" s="11"/>
       <c r="W826" s="11"/>
     </row>
-    <row r="827" spans="7:23">
+    <row r="827" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G827" s="11"/>
       <c r="J827" s="11"/>
       <c r="W827" s="11"/>
     </row>
-    <row r="828" spans="7:23">
+    <row r="828" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G828" s="11"/>
       <c r="J828" s="11"/>
       <c r="W828" s="11"/>
     </row>
-    <row r="829" spans="7:23">
+    <row r="829" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G829" s="11"/>
       <c r="J829" s="11"/>
       <c r="W829" s="11"/>
     </row>
-    <row r="830" spans="7:23">
+    <row r="830" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G830" s="11"/>
       <c r="J830" s="11"/>
       <c r="W830" s="11"/>
     </row>
-    <row r="831" spans="7:23">
+    <row r="831" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G831" s="11"/>
       <c r="J831" s="11"/>
       <c r="W831" s="11"/>
     </row>
-    <row r="832" spans="7:23">
+    <row r="832" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G832" s="11"/>
       <c r="J832" s="11"/>
       <c r="W832" s="11"/>
     </row>
-    <row r="833" spans="7:23">
+    <row r="833" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G833" s="11"/>
       <c r="J833" s="11"/>
       <c r="W833" s="11"/>
     </row>
-    <row r="834" spans="7:23">
+    <row r="834" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G834" s="11"/>
       <c r="J834" s="11"/>
       <c r="W834" s="11"/>
     </row>
-    <row r="835" spans="7:23">
+    <row r="835" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G835" s="11"/>
       <c r="J835" s="11"/>
       <c r="W835" s="11"/>
     </row>
-    <row r="836" spans="7:23">
+    <row r="836" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G836" s="11"/>
       <c r="J836" s="11"/>
       <c r="W836" s="11"/>
     </row>
-    <row r="837" spans="7:23">
+    <row r="837" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G837" s="11"/>
       <c r="J837" s="11"/>
       <c r="W837" s="11"/>
     </row>
-    <row r="838" spans="7:23">
+    <row r="838" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G838" s="11"/>
       <c r="J838" s="11"/>
       <c r="W838" s="11"/>
     </row>
-    <row r="839" spans="7:23">
+    <row r="839" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G839" s="11"/>
       <c r="J839" s="11"/>
       <c r="W839" s="11"/>
     </row>
-    <row r="840" spans="7:23">
+    <row r="840" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G840" s="11"/>
       <c r="J840" s="11"/>
       <c r="W840" s="11"/>
     </row>
-    <row r="841" spans="7:23">
+    <row r="841" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G841" s="11"/>
       <c r="J841" s="11"/>
       <c r="W841" s="11"/>
     </row>
-    <row r="842" spans="7:23">
+    <row r="842" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G842" s="11"/>
       <c r="J842" s="11"/>
       <c r="W842" s="11"/>
     </row>
-    <row r="843" spans="7:23">
+    <row r="843" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G843" s="11"/>
       <c r="J843" s="11"/>
       <c r="W843" s="11"/>
     </row>
-    <row r="844" spans="7:23">
+    <row r="844" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G844" s="11"/>
       <c r="J844" s="11"/>
       <c r="W844" s="11"/>
     </row>
-    <row r="845" spans="7:23">
+    <row r="845" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G845" s="11"/>
       <c r="J845" s="11"/>
       <c r="W845" s="11"/>
     </row>
-    <row r="846" spans="7:23">
+    <row r="846" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G846" s="11"/>
       <c r="J846" s="11"/>
       <c r="W846" s="11"/>
     </row>
-    <row r="847" spans="7:23">
+    <row r="847" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G847" s="11"/>
       <c r="J847" s="11"/>
       <c r="W847" s="11"/>
     </row>
-    <row r="848" spans="7:23">
+    <row r="848" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G848" s="11"/>
       <c r="J848" s="11"/>
       <c r="W848" s="11"/>
     </row>
-    <row r="849" spans="7:23">
+    <row r="849" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G849" s="11"/>
       <c r="J849" s="11"/>
       <c r="W849" s="11"/>
     </row>
-    <row r="850" spans="7:23">
+    <row r="850" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G850" s="11"/>
       <c r="J850" s="11"/>
       <c r="W850" s="11"/>
     </row>
-    <row r="851" spans="7:23">
+    <row r="851" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G851" s="11"/>
       <c r="J851" s="11"/>
       <c r="W851" s="11"/>
     </row>
-    <row r="852" spans="7:23">
+    <row r="852" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G852" s="11"/>
       <c r="J852" s="11"/>
       <c r="W852" s="11"/>
     </row>
-    <row r="853" spans="7:23">
+    <row r="853" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G853" s="11"/>
       <c r="J853" s="11"/>
       <c r="W853" s="11"/>
     </row>
-    <row r="854" spans="7:23">
+    <row r="854" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G854" s="11"/>
       <c r="J854" s="11"/>
       <c r="W854" s="11"/>
     </row>
-    <row r="855" spans="7:23">
+    <row r="855" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G855" s="11"/>
       <c r="J855" s="11"/>
       <c r="W855" s="11"/>
     </row>
-    <row r="856" spans="7:23">
+    <row r="856" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G856" s="11"/>
       <c r="J856" s="11"/>
       <c r="W856" s="11"/>
     </row>
-    <row r="857" spans="7:23">
+    <row r="857" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G857" s="11"/>
       <c r="J857" s="11"/>
       <c r="W857" s="11"/>
     </row>
-    <row r="858" spans="7:23">
+    <row r="858" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G858" s="11"/>
       <c r="J858" s="11"/>
       <c r="W858" s="11"/>
     </row>
-    <row r="859" spans="7:23">
+    <row r="859" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G859" s="11"/>
       <c r="J859" s="11"/>
       <c r="W859" s="11"/>
     </row>
-    <row r="860" spans="7:23">
+    <row r="860" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G860" s="11"/>
       <c r="J860" s="11"/>
       <c r="W860" s="11"/>
     </row>
-    <row r="861" spans="7:23">
+    <row r="861" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G861" s="11"/>
       <c r="J861" s="11"/>
       <c r="W861" s="11"/>
     </row>
-    <row r="862" spans="7:23">
+    <row r="862" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G862" s="11"/>
       <c r="J862" s="11"/>
       <c r="W862" s="11"/>
     </row>
-    <row r="863" spans="7:23">
+    <row r="863" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G863" s="11"/>
       <c r="J863" s="11"/>
       <c r="W863" s="11"/>
     </row>
-    <row r="864" spans="7:23">
+    <row r="864" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G864" s="11"/>
       <c r="J864" s="11"/>
       <c r="W864" s="11"/>
     </row>
-    <row r="865" spans="7:23">
+    <row r="865" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G865" s="11"/>
       <c r="J865" s="11"/>
       <c r="W865" s="11"/>
     </row>
-    <row r="866" spans="7:23">
+    <row r="866" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G866" s="11"/>
       <c r="J866" s="11"/>
       <c r="W866" s="11"/>
     </row>
-    <row r="867" spans="7:23">
+    <row r="867" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G867" s="11"/>
       <c r="J867" s="11"/>
       <c r="W867" s="11"/>
     </row>
-    <row r="868" spans="7:23">
+    <row r="868" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G868" s="11"/>
       <c r="J868" s="11"/>
       <c r="W868" s="11"/>
     </row>
-    <row r="869" spans="7:23">
+    <row r="869" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G869" s="11"/>
       <c r="J869" s="11"/>
       <c r="W869" s="11"/>
     </row>
-    <row r="870" spans="7:23">
+    <row r="870" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G870" s="11"/>
       <c r="J870" s="11"/>
       <c r="W870" s="11"/>
     </row>
-    <row r="871" spans="7:23">
+    <row r="871" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G871" s="11"/>
       <c r="J871" s="11"/>
       <c r="W871" s="11"/>
     </row>
-    <row r="872" spans="7:23">
+    <row r="872" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G872" s="11"/>
       <c r="J872" s="11"/>
       <c r="W872" s="11"/>
     </row>
-    <row r="873" spans="7:23">
+    <row r="873" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G873" s="11"/>
       <c r="J873" s="11"/>
       <c r="W873" s="11"/>
     </row>
-    <row r="874" spans="7:23">
+    <row r="874" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G874" s="11"/>
       <c r="J874" s="11"/>
       <c r="W874" s="11"/>
     </row>
-    <row r="875" spans="7:23">
+    <row r="875" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G875" s="11"/>
       <c r="J875" s="11"/>
       <c r="W875" s="11"/>
     </row>
-    <row r="876" spans="7:23">
+    <row r="876" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G876" s="11"/>
       <c r="J876" s="11"/>
       <c r="W876" s="11"/>
     </row>
-    <row r="877" spans="7:23">
+    <row r="877" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G877" s="11"/>
       <c r="J877" s="11"/>
       <c r="W877" s="11"/>
     </row>
-    <row r="878" spans="7:23">
+    <row r="878" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G878" s="11"/>
       <c r="J878" s="11"/>
       <c r="W878" s="11"/>
     </row>
-    <row r="879" spans="7:23">
+    <row r="879" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G879" s="11"/>
       <c r="J879" s="11"/>
       <c r="W879" s="11"/>
     </row>
-    <row r="880" spans="7:23">
+    <row r="880" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G880" s="11"/>
       <c r="J880" s="11"/>
       <c r="W880" s="11"/>
     </row>
-    <row r="881" spans="7:23">
+    <row r="881" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G881" s="11"/>
       <c r="J881" s="11"/>
       <c r="W881" s="11"/>
     </row>
-    <row r="882" spans="7:23">
+    <row r="882" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G882" s="11"/>
       <c r="J882" s="11"/>
       <c r="W882" s="11"/>
     </row>
-    <row r="883" spans="7:23">
+    <row r="883" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G883" s="11"/>
       <c r="J883" s="11"/>
       <c r="W883" s="11"/>
     </row>
-    <row r="884" spans="7:23">
+    <row r="884" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G884" s="11"/>
       <c r="J884" s="11"/>
       <c r="W884" s="11"/>
     </row>
-    <row r="885" spans="7:23">
+    <row r="885" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G885" s="11"/>
       <c r="J885" s="11"/>
       <c r="W885" s="11"/>
     </row>
-    <row r="886" spans="7:23">
+    <row r="886" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G886" s="11"/>
       <c r="J886" s="11"/>
       <c r="W886" s="11"/>
     </row>
-    <row r="887" spans="7:23">
+    <row r="887" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G887" s="11"/>
       <c r="J887" s="11"/>
       <c r="W887" s="11"/>
     </row>
-    <row r="888" spans="7:23">
+    <row r="888" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G888" s="11"/>
       <c r="J888" s="11"/>
       <c r="W888" s="11"/>
     </row>
-    <row r="889" spans="7:23">
+    <row r="889" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G889" s="11"/>
       <c r="J889" s="11"/>
       <c r="W889" s="11"/>
     </row>
-    <row r="890" spans="7:23">
+    <row r="890" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G890" s="11"/>
       <c r="J890" s="11"/>
       <c r="W890" s="11"/>
     </row>
-    <row r="891" spans="7:23">
+    <row r="891" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G891" s="11"/>
       <c r="J891" s="11"/>
       <c r="W891" s="11"/>
     </row>
-    <row r="892" spans="7:23">
+    <row r="892" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G892" s="11"/>
       <c r="J892" s="11"/>
       <c r="W892" s="11"/>
     </row>
-    <row r="893" spans="7:23">
+    <row r="893" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G893" s="11"/>
       <c r="J893" s="11"/>
       <c r="W893" s="11"/>
     </row>
-    <row r="894" spans="7:23">
+    <row r="894" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G894" s="11"/>
       <c r="J894" s="11"/>
       <c r="W894" s="11"/>
     </row>
-    <row r="895" spans="7:23">
+    <row r="895" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G895" s="11"/>
       <c r="J895" s="11"/>
       <c r="W895" s="11"/>
     </row>
-    <row r="896" spans="7:23">
+    <row r="896" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G896" s="11"/>
       <c r="J896" s="11"/>
       <c r="W896" s="11"/>
     </row>
-    <row r="897" spans="7:23">
+    <row r="897" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G897" s="11"/>
       <c r="J897" s="11"/>
       <c r="W897" s="11"/>
     </row>
-    <row r="898" spans="7:23">
+    <row r="898" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G898" s="11"/>
       <c r="J898" s="11"/>
       <c r="W898" s="11"/>
     </row>
-    <row r="899" spans="7:23">
+    <row r="899" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G899" s="11"/>
       <c r="J899" s="11"/>
       <c r="W899" s="11"/>
     </row>
-    <row r="900" spans="7:23">
+    <row r="900" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G900" s="11"/>
       <c r="J900" s="11"/>
       <c r="W900" s="11"/>
     </row>
-    <row r="901" spans="7:23">
+    <row r="901" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G901" s="11"/>
       <c r="J901" s="11"/>
       <c r="W901" s="11"/>
     </row>
-    <row r="902" spans="7:23">
+    <row r="902" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G902" s="11"/>
       <c r="J902" s="11"/>
       <c r="W902" s="11"/>
     </row>
-    <row r="903" spans="7:23">
+    <row r="903" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G903" s="11"/>
       <c r="J903" s="11"/>
       <c r="W903" s="11"/>
     </row>
-    <row r="904" spans="7:23">
+    <row r="904" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G904" s="11"/>
       <c r="J904" s="11"/>
       <c r="W904" s="11"/>
     </row>
-    <row r="905" spans="7:23">
+    <row r="905" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G905" s="11"/>
       <c r="J905" s="11"/>
       <c r="W905" s="11"/>
     </row>
-    <row r="906" spans="7:23">
+    <row r="906" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G906" s="11"/>
       <c r="J906" s="11"/>
       <c r="W906" s="11"/>
     </row>
-    <row r="907" spans="7:23">
+    <row r="907" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G907" s="11"/>
       <c r="J907" s="11"/>
       <c r="W907" s="11"/>
     </row>
-    <row r="908" spans="7:23">
+    <row r="908" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G908" s="11"/>
       <c r="J908" s="11"/>
       <c r="W908" s="11"/>
     </row>
-    <row r="909" spans="7:23">
+    <row r="909" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G909" s="11"/>
       <c r="J909" s="11"/>
       <c r="W909" s="11"/>
     </row>
-    <row r="910" spans="7:23">
+    <row r="910" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G910" s="11"/>
       <c r="J910" s="11"/>
       <c r="W910" s="11"/>
     </row>
-    <row r="911" spans="7:23">
+    <row r="911" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G911" s="11"/>
       <c r="J911" s="11"/>
       <c r="W911" s="11"/>
     </row>
-    <row r="912" spans="7:23">
+    <row r="912" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G912" s="11"/>
       <c r="J912" s="11"/>
       <c r="W912" s="11"/>
     </row>
-    <row r="913" spans="7:23">
+    <row r="913" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G913" s="11"/>
       <c r="J913" s="11"/>
       <c r="W913" s="11"/>
     </row>
-    <row r="914" spans="7:23">
+    <row r="914" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G914" s="11"/>
       <c r="J914" s="11"/>
       <c r="W914" s="11"/>
     </row>
-    <row r="915" spans="7:23">
+    <row r="915" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G915" s="11"/>
       <c r="J915" s="11"/>
       <c r="W915" s="11"/>
     </row>
-    <row r="916" spans="7:23">
+    <row r="916" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G916" s="11"/>
       <c r="J916" s="11"/>
       <c r="W916" s="11"/>
     </row>
-    <row r="917" spans="7:23">
+    <row r="917" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G917" s="11"/>
       <c r="J917" s="11"/>
       <c r="W917" s="11"/>
     </row>
-    <row r="918" spans="7:23">
+    <row r="918" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G918" s="11"/>
       <c r="J918" s="11"/>
       <c r="W918" s="11"/>
     </row>
-    <row r="919" spans="7:23">
+    <row r="919" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G919" s="11"/>
       <c r="J919" s="11"/>
       <c r="W919" s="11"/>
     </row>
-    <row r="920" spans="7:23">
+    <row r="920" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G920" s="11"/>
       <c r="J920" s="11"/>
       <c r="W920" s="11"/>
     </row>
-    <row r="921" spans="7:23">
+    <row r="921" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G921" s="11"/>
       <c r="J921" s="11"/>
       <c r="W921" s="11"/>
     </row>
-    <row r="922" spans="7:23">
+    <row r="922" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G922" s="11"/>
       <c r="J922" s="11"/>
       <c r="W922" s="11"/>
     </row>
-    <row r="923" spans="7:23">
+    <row r="923" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G923" s="11"/>
       <c r="J923" s="11"/>
       <c r="W923" s="11"/>
     </row>
-    <row r="924" spans="7:23">
+    <row r="924" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G924" s="11"/>
       <c r="J924" s="11"/>
       <c r="W924" s="11"/>
     </row>
-    <row r="925" spans="7:23">
+    <row r="925" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G925" s="11"/>
       <c r="J925" s="11"/>
       <c r="W925" s="11"/>
     </row>
-    <row r="926" spans="7:23">
+    <row r="926" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G926" s="11"/>
       <c r="J926" s="11"/>
       <c r="W926" s="11"/>
     </row>
-    <row r="927" spans="7:23">
+    <row r="927" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G927" s="11"/>
       <c r="J927" s="11"/>
       <c r="W927" s="11"/>
     </row>
-    <row r="928" spans="7:23">
+    <row r="928" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G928" s="11"/>
       <c r="J928" s="11"/>
       <c r="W928" s="11"/>
     </row>
-    <row r="929" spans="7:23">
+    <row r="929" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G929" s="11"/>
       <c r="J929" s="11"/>
       <c r="W929" s="11"/>
     </row>
-    <row r="930" spans="7:23">
+    <row r="930" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G930" s="11"/>
       <c r="J930" s="11"/>
       <c r="W930" s="11"/>
     </row>
-    <row r="931" spans="7:23">
+    <row r="931" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G931" s="11"/>
       <c r="J931" s="11"/>
       <c r="W931" s="11"/>
     </row>
-    <row r="932" spans="7:23">
+    <row r="932" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G932" s="11"/>
       <c r="J932" s="11"/>
       <c r="W932" s="11"/>
     </row>
-    <row r="933" spans="7:23">
+    <row r="933" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G933" s="11"/>
       <c r="J933" s="11"/>
       <c r="W933" s="11"/>
     </row>
-    <row r="934" spans="7:23">
+    <row r="934" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G934" s="11"/>
       <c r="J934" s="11"/>
       <c r="W934" s="11"/>
     </row>
-    <row r="935" spans="7:23">
+    <row r="935" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G935" s="11"/>
       <c r="J935" s="11"/>
       <c r="W935" s="11"/>
     </row>
-    <row r="936" spans="7:23">
+    <row r="936" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G936" s="11"/>
       <c r="J936" s="11"/>
       <c r="W936" s="11"/>
     </row>
-    <row r="937" spans="7:23">
+    <row r="937" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G937" s="11"/>
       <c r="J937" s="11"/>
       <c r="W937" s="11"/>
     </row>
-    <row r="938" spans="7:23">
+    <row r="938" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G938" s="11"/>
       <c r="J938" s="11"/>
       <c r="W938" s="11"/>
     </row>
-    <row r="939" spans="7:23">
+    <row r="939" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G939" s="11"/>
       <c r="J939" s="11"/>
       <c r="W939" s="11"/>
     </row>
-    <row r="940" spans="7:23">
+    <row r="940" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G940" s="11"/>
       <c r="J940" s="11"/>
       <c r="W940" s="11"/>
     </row>
-    <row r="941" spans="7:23">
+    <row r="941" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G941" s="11"/>
       <c r="J941" s="11"/>
       <c r="W941" s="11"/>
     </row>
-    <row r="942" spans="7:23">
+    <row r="942" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G942" s="11"/>
       <c r="J942" s="11"/>
       <c r="W942" s="11"/>
     </row>
-    <row r="943" spans="7:23">
+    <row r="943" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G943" s="11"/>
       <c r="J943" s="11"/>
       <c r="W943" s="11"/>
     </row>
-    <row r="944" spans="7:23">
+    <row r="944" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G944" s="11"/>
       <c r="J944" s="11"/>
       <c r="W944" s="11"/>
     </row>
-    <row r="945" spans="7:23">
+    <row r="945" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G945" s="11"/>
       <c r="J945" s="11"/>
       <c r="W945" s="11"/>
     </row>
-    <row r="946" spans="7:23">
+    <row r="946" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G946" s="11"/>
       <c r="J946" s="11"/>
       <c r="W946" s="11"/>
     </row>
-    <row r="947" spans="7:23">
+    <row r="947" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G947" s="11"/>
       <c r="J947" s="11"/>
       <c r="W947" s="11"/>
     </row>
-    <row r="948" spans="7:23">
+    <row r="948" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G948" s="11"/>
       <c r="J948" s="11"/>
       <c r="W948" s="11"/>
     </row>
-    <row r="949" spans="7:23">
+    <row r="949" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G949" s="11"/>
       <c r="J949" s="11"/>
       <c r="W949" s="11"/>
     </row>
-    <row r="950" spans="7:23">
+    <row r="950" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G950" s="11"/>
       <c r="J950" s="11"/>
       <c r="W950" s="11"/>
     </row>
-    <row r="951" spans="7:23">
+    <row r="951" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G951" s="11"/>
       <c r="J951" s="11"/>
       <c r="W951" s="11"/>
     </row>
-    <row r="952" spans="7:23">
+    <row r="952" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G952" s="11"/>
       <c r="J952" s="11"/>
       <c r="W952" s="11"/>
     </row>
-    <row r="953" spans="7:23">
+    <row r="953" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G953" s="11"/>
       <c r="J953" s="11"/>
       <c r="W953" s="11"/>
     </row>
-    <row r="954" spans="7:23">
+    <row r="954" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G954" s="11"/>
       <c r="J954" s="11"/>
       <c r="W954" s="11"/>
     </row>
-    <row r="955" spans="7:23">
+    <row r="955" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G955" s="11"/>
       <c r="J955" s="11"/>
       <c r="W955" s="11"/>
     </row>
-    <row r="956" spans="7:23">
+    <row r="956" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G956" s="11"/>
       <c r="J956" s="11"/>
       <c r="W956" s="11"/>
     </row>
-    <row r="957" spans="7:23">
+    <row r="957" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G957" s="11"/>
       <c r="J957" s="11"/>
       <c r="W957" s="11"/>
     </row>
-    <row r="958" spans="7:23">
+    <row r="958" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G958" s="11"/>
       <c r="J958" s="11"/>
       <c r="W958" s="11"/>
     </row>
-    <row r="959" spans="7:23">
+    <row r="959" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G959" s="11"/>
       <c r="J959" s="11"/>
       <c r="W959" s="11"/>
     </row>
-    <row r="960" spans="7:23">
+    <row r="960" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G960" s="11"/>
       <c r="J960" s="11"/>
       <c r="W960" s="11"/>
     </row>
-    <row r="961" spans="7:23">
+    <row r="961" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G961" s="11"/>
       <c r="J961" s="11"/>
       <c r="W961" s="11"/>
     </row>
-    <row r="962" spans="7:23">
+    <row r="962" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G962" s="11"/>
       <c r="J962" s="11"/>
       <c r="W962" s="11"/>
     </row>
-    <row r="963" spans="7:23">
+    <row r="963" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G963" s="11"/>
       <c r="J963" s="11"/>
       <c r="W963" s="11"/>
     </row>
-    <row r="964" spans="7:23">
+    <row r="964" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G964" s="11"/>
       <c r="J964" s="11"/>
       <c r="W964" s="11"/>
     </row>
-    <row r="965" spans="7:23">
+    <row r="965" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G965" s="11"/>
       <c r="J965" s="11"/>
       <c r="W965" s="11"/>
     </row>
-    <row r="966" spans="7:23">
+    <row r="966" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G966" s="11"/>
       <c r="J966" s="11"/>
       <c r="W966" s="11"/>
     </row>
-    <row r="967" spans="7:23">
+    <row r="967" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G967" s="11"/>
       <c r="J967" s="11"/>
       <c r="W967" s="11"/>
     </row>
-    <row r="968" spans="7:23">
+    <row r="968" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G968" s="11"/>
       <c r="J968" s="11"/>
       <c r="W968" s="11"/>
     </row>
-    <row r="969" spans="7:23">
+    <row r="969" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G969" s="11"/>
       <c r="J969" s="11"/>
       <c r="W969" s="11"/>
     </row>
-    <row r="970" spans="7:23">
+    <row r="970" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G970" s="11"/>
       <c r="J970" s="11"/>
       <c r="W970" s="11"/>
     </row>
-    <row r="971" spans="7:23">
+    <row r="971" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G971" s="11"/>
       <c r="J971" s="11"/>
       <c r="W971" s="11"/>
     </row>
-    <row r="972" spans="7:23">
+    <row r="972" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G972" s="11"/>
       <c r="J972" s="11"/>
       <c r="W972" s="11"/>
     </row>
-    <row r="973" spans="7:23">
+    <row r="973" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G973" s="11"/>
       <c r="J973" s="11"/>
       <c r="W973" s="11"/>
     </row>
-    <row r="974" spans="7:23">
+    <row r="974" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G974" s="11"/>
       <c r="J974" s="11"/>
       <c r="W974" s="11"/>
     </row>
-    <row r="975" spans="7:23">
+    <row r="975" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G975" s="11"/>
       <c r="J975" s="11"/>
       <c r="W975" s="11"/>
     </row>
-    <row r="976" spans="7:23">
+    <row r="976" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G976" s="11"/>
       <c r="J976" s="11"/>
       <c r="W976" s="11"/>
     </row>
-    <row r="977" spans="7:23">
+    <row r="977" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G977" s="11"/>
       <c r="J977" s="11"/>
       <c r="W977" s="11"/>
     </row>
-    <row r="978" spans="7:23">
+    <row r="978" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G978" s="11"/>
       <c r="J978" s="11"/>
       <c r="W978" s="11"/>
     </row>
-    <row r="979" spans="7:23">
+    <row r="979" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G979" s="11"/>
       <c r="J979" s="11"/>
       <c r="W979" s="11"/>
     </row>
-    <row r="980" spans="7:23">
+    <row r="980" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G980" s="11"/>
       <c r="J980" s="11"/>
       <c r="W980" s="11"/>
     </row>
-    <row r="981" spans="7:23">
+    <row r="981" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G981" s="11"/>
       <c r="J981" s="11"/>
       <c r="W981" s="11"/>
     </row>
-    <row r="982" spans="7:23">
+    <row r="982" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G982" s="11"/>
       <c r="J982" s="11"/>
       <c r="W982" s="11"/>
     </row>
-    <row r="983" spans="7:23">
+    <row r="983" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G983" s="11"/>
       <c r="J983" s="11"/>
       <c r="W983" s="11"/>
     </row>
-    <row r="984" spans="7:23">
+    <row r="984" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G984" s="11"/>
       <c r="J984" s="11"/>
       <c r="W984" s="11"/>
     </row>
-    <row r="985" spans="7:23">
+    <row r="985" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G985" s="11"/>
       <c r="J985" s="11"/>
       <c r="W985" s="11"/>
     </row>
-    <row r="986" spans="7:23">
+    <row r="986" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G986" s="11"/>
       <c r="J986" s="11"/>
       <c r="W986" s="11"/>
     </row>
-    <row r="987" spans="7:23">
+    <row r="987" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G987" s="11"/>
       <c r="J987" s="11"/>
       <c r="W987" s="11"/>
     </row>
-    <row r="988" spans="7:23">
+    <row r="988" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G988" s="11"/>
       <c r="J988" s="11"/>
       <c r="W988" s="11"/>
     </row>
-    <row r="989" spans="7:23">
+    <row r="989" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G989" s="11"/>
       <c r="J989" s="11"/>
       <c r="W989" s="11"/>
     </row>
-    <row r="990" spans="7:23">
+    <row r="990" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G990" s="11"/>
       <c r="J990" s="11"/>
       <c r="W990" s="11"/>
     </row>
-    <row r="991" spans="7:23">
+    <row r="991" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G991" s="11"/>
       <c r="J991" s="11"/>
       <c r="W991" s="11"/>
     </row>
-    <row r="992" spans="7:23">
+    <row r="992" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G992" s="11"/>
       <c r="J992" s="11"/>
       <c r="W992" s="11"/>
     </row>
-    <row r="993" spans="7:23">
+    <row r="993" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G993" s="11"/>
       <c r="J993" s="11"/>
       <c r="W993" s="11"/>
     </row>
-    <row r="994" spans="7:23">
+    <row r="994" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G994" s="11"/>
       <c r="J994" s="11"/>
       <c r="W994" s="11"/>
     </row>
-    <row r="995" spans="7:23">
+    <row r="995" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G995" s="11"/>
       <c r="J995" s="11"/>
       <c r="W995" s="11"/>
     </row>
-    <row r="996" spans="7:23">
+    <row r="996" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G996" s="11"/>
       <c r="J996" s="11"/>
       <c r="W996" s="11"/>
     </row>
-    <row r="997" spans="7:23">
+    <row r="997" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G997" s="11"/>
       <c r="J997" s="11"/>
       <c r="W997" s="11"/>
     </row>
-    <row r="998" spans="7:23">
+    <row r="998" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G998" s="11"/>
       <c r="J998" s="11"/>
       <c r="W998" s="11"/>
     </row>
-    <row r="999" spans="7:23">
+    <row r="999" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G999" s="11"/>
       <c r="J999" s="11"/>
       <c r="W999" s="11"/>
     </row>
-    <row r="1000" spans="7:23">
+    <row r="1000" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G1000" s="11"/>
       <c r="J1000" s="11"/>
       <c r="W1000" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="L13:W13"/>
     <mergeCell ref="W14:W15"/>
     <mergeCell ref="B4:H4"/>
@@ -8408,48 +8536,14 @@
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="N14:N15"/>
     <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8463,7 +8557,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" customWidth="1"/>
@@ -8473,7 +8567,7 @@
     <col min="9" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" ht="18.75" customHeight="1">
+    <row r="6" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -8481,7 +8575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="18.75" customHeight="1">
+    <row r="7" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
@@ -8495,7 +8589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="18.75" customHeight="1">
+    <row r="8" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -8509,7 +8603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="18.75" customHeight="1">
+    <row r="9" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
@@ -8523,7 +8617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="18.75" customHeight="1">
+    <row r="10" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -8537,7 +8631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="18.75" customHeight="1">
+    <row r="11" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
@@ -8551,7 +8645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="18.75" customHeight="1">
+    <row r="12" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
@@ -8565,7 +8659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="18.75" customHeight="1">
+    <row r="13" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
@@ -8579,7 +8673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="18.75" customHeight="1">
+    <row r="14" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
@@ -8587,7 +8681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="18.75" customHeight="1">
+    <row r="15" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
@@ -8595,7 +8689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="18.75" customHeight="1">
+    <row r="16" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
@@ -8603,7 +8697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="18.75" customHeight="1">
+    <row r="17" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
@@ -8611,7 +8705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="18.75" customHeight="1">
+    <row r="18" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
@@ -8619,7 +8713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="18.75" customHeight="1">
+    <row r="19" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
@@ -8627,7 +8721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="18.75" customHeight="1">
+    <row r="20" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
@@ -8635,7 +8729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="18.75" customHeight="1">
+    <row r="21" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
@@ -8654,7 +8748,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
@@ -8662,14 +8756,14 @@
     <col min="4" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="50"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="56"/>
+      <c r="C1" s="47"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -8680,7 +8774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8691,7 +8785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -8702,7 +8796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>54</v>
@@ -8711,7 +8805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>56</v>
@@ -8720,107 +8814,107 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
